--- a/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9953289224283863</v>
+      </c>
+      <c r="D3">
+        <v>1.002734008385656</v>
+      </c>
+      <c r="E3">
         <v>0.9906757081722694</v>
-      </c>
-      <c r="D3">
-        <v>1.012847004818623</v>
-      </c>
-      <c r="E3">
-        <v>0.9973088036725599</v>
       </c>
       <c r="F3">
         <v>0.9906757081722694</v>
       </c>
       <c r="G3">
-        <v>1.002734008385656</v>
+        <v>1.008388359361495</v>
       </c>
       <c r="H3">
-        <v>0.9953289224283863</v>
+        <v>0.9965197751834127</v>
       </c>
       <c r="I3">
-        <v>0.9906757081722694</v>
+        <v>1.002838089013154</v>
       </c>
       <c r="J3">
         <v>1.012847004818623</v>
       </c>
       <c r="K3">
-        <v>1.002838089013154</v>
+        <v>0.9906757081722694</v>
       </c>
       <c r="L3">
-        <v>0.9965197751834127</v>
+        <v>1.012847004818623</v>
       </c>
       <c r="M3">
-        <v>1.008388359361495</v>
+        <v>0.9973088036725599</v>
       </c>
       <c r="N3">
         <v>0.9906757081722694</v>
@@ -764,7 +716,7 @@
         <v>1.000830083879444</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9909781362807443</v>
+      </c>
+      <c r="D4">
+        <v>1.005283409744854</v>
+      </c>
+      <c r="E4">
         <v>0.9820018796983366</v>
-      </c>
-      <c r="D4">
-        <v>1.024794948698685</v>
-      </c>
-      <c r="E4">
-        <v>0.994795216831841</v>
       </c>
       <c r="F4">
         <v>0.9820018796983366</v>
       </c>
       <c r="G4">
-        <v>1.005283409744854</v>
+        <v>1.016194835447213</v>
       </c>
       <c r="H4">
-        <v>0.9909781362807443</v>
+        <v>0.9932864214357938</v>
       </c>
       <c r="I4">
-        <v>0.9820018796983366</v>
+        <v>1.00547891748267</v>
       </c>
       <c r="J4">
         <v>1.024794948698685</v>
       </c>
       <c r="K4">
-        <v>1.00547891748267</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="L4">
-        <v>0.9932864214357938</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="M4">
-        <v>1.016194835447213</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="N4">
         <v>0.9820018796983366</v>
@@ -835,7 +787,7 @@
         <v>1.001601720702517</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9826872763545159</v>
+      </c>
+      <c r="D5">
+        <v>1.010123723722107</v>
+      </c>
+      <c r="E5">
         <v>0.965611473284311</v>
-      </c>
-      <c r="D5">
-        <v>1.047586645744908</v>
-      </c>
-      <c r="E5">
-        <v>0.9899442924343865</v>
       </c>
       <c r="F5">
         <v>0.965611473284311</v>
       </c>
       <c r="G5">
-        <v>1.010123723722107</v>
+        <v>1.031058073046359</v>
       </c>
       <c r="H5">
-        <v>0.9826872763545159</v>
+        <v>0.9871566690989344</v>
       </c>
       <c r="I5">
-        <v>0.965611473284311</v>
+        <v>1.010458872553534</v>
       </c>
       <c r="J5">
         <v>1.047586645744908</v>
       </c>
       <c r="K5">
-        <v>1.010458872553534</v>
+        <v>0.965611473284311</v>
       </c>
       <c r="L5">
-        <v>0.9871566690989344</v>
+        <v>1.047586645744908</v>
       </c>
       <c r="M5">
-        <v>1.031058073046359</v>
+        <v>0.9899442924343865</v>
       </c>
       <c r="N5">
         <v>0.965611473284311</v>
@@ -888,13 +840,13 @@
         <v>1.000034008078247</v>
       </c>
       <c r="R5">
-        <v>1.001047470487868</v>
+        <v>1.001047470487869</v>
       </c>
       <c r="S5">
         <v>1.015884887300467</v>
       </c>
       <c r="T5">
-        <v>1.001047470487868</v>
+        <v>1.001047470487869</v>
       </c>
       <c r="U5">
         <v>1.003316533796428</v>
@@ -906,7 +858,7 @@
         <v>1.003078378279882</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9745944122235028</v>
+      </c>
+      <c r="D6">
+        <v>1.014848787757401</v>
+      </c>
+      <c r="E6">
         <v>0.9496177459003916</v>
-      </c>
-      <c r="D6">
-        <v>1.069830200600768</v>
-      </c>
-      <c r="E6">
-        <v>0.9852064221608864</v>
       </c>
       <c r="F6">
         <v>0.9496177459003916</v>
       </c>
       <c r="G6">
-        <v>1.014848787757401</v>
+        <v>1.045564518416457</v>
       </c>
       <c r="H6">
-        <v>0.9745944122235028</v>
+        <v>0.981175858820131</v>
       </c>
       <c r="I6">
-        <v>0.9496177459003916</v>
+        <v>1.015318283444446</v>
       </c>
       <c r="J6">
         <v>1.069830200600768</v>
       </c>
       <c r="K6">
-        <v>1.015318283444446</v>
+        <v>0.9496177459003916</v>
       </c>
       <c r="L6">
-        <v>0.981175858820131</v>
+        <v>1.069830200600768</v>
       </c>
       <c r="M6">
-        <v>1.045564518416457</v>
+        <v>0.9852064221608864</v>
       </c>
       <c r="N6">
         <v>0.9496177459003916</v>
@@ -977,7 +929,7 @@
         <v>1.004519528665498</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,43 +937,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993866145497864</v>
+        <v>0.9996099187177883</v>
       </c>
       <c r="D7">
-        <v>1.001049475251303</v>
+        <v>1.000218068540531</v>
       </c>
       <c r="E7">
-        <v>0.999697185562835</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="F7">
-        <v>0.9993866145497864</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="G7">
-        <v>1.000218068540531</v>
+        <v>1.000670609362117</v>
       </c>
       <c r="H7">
-        <v>0.9996099187177883</v>
+        <v>0.9997618937389866</v>
       </c>
       <c r="I7">
-        <v>0.9993866145497864</v>
+        <v>1.000178426198716</v>
       </c>
       <c r="J7">
         <v>1.001049475251303</v>
       </c>
       <c r="K7">
-        <v>1.000178426198716</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="L7">
-        <v>0.9997618937389865</v>
+        <v>1.001049475251303</v>
       </c>
       <c r="M7">
-        <v>1.000670609362116</v>
+        <v>0.9996971855628348</v>
       </c>
       <c r="N7">
-        <v>0.9993866145497864</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="O7">
-        <v>0.999697185562835</v>
+        <v>0.9996971855628348</v>
       </c>
       <c r="P7">
         <v>1.000373330407069</v>
@@ -1033,7 +985,7 @@
         <v>1.000044425121308</v>
       </c>
       <c r="S7">
-        <v>1.000321576451557</v>
+        <v>1.000321576451556</v>
       </c>
       <c r="T7">
         <v>1.000044425121308</v>
@@ -1042,13 +994,13 @@
         <v>1.000087835976114</v>
       </c>
       <c r="V7">
-        <v>0.9999475916908486</v>
+        <v>0.9999475916908483</v>
       </c>
       <c r="W7">
         <v>1.000071523990258</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9989340568559617</v>
+      </c>
+      <c r="D8">
+        <v>1.000596808000628</v>
+      </c>
+      <c r="E8">
         <v>0.9983146630655566</v>
-      </c>
-      <c r="D8">
-        <v>1.002867553747923</v>
-      </c>
-      <c r="E8">
-        <v>0.999176701015318</v>
       </c>
       <c r="F8">
         <v>0.9983146630655566</v>
       </c>
       <c r="G8">
-        <v>1.000596808000628</v>
+        <v>1.00183374505399</v>
       </c>
       <c r="H8">
-        <v>0.9989340568559617</v>
+        <v>0.9993468749156335</v>
       </c>
       <c r="I8">
-        <v>0.9983146630655566</v>
+        <v>1.000490947881454</v>
       </c>
       <c r="J8">
         <v>1.002867553747923</v>
       </c>
       <c r="K8">
-        <v>1.000490947881454</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="L8">
-        <v>0.9993468749156335</v>
+        <v>1.002867553747923</v>
       </c>
       <c r="M8">
-        <v>1.00183374505399</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="N8">
         <v>0.9983146630655566</v>
       </c>
       <c r="O8">
-        <v>0.999176701015318</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="P8">
         <v>1.00102212738162</v>
       </c>
       <c r="Q8">
-        <v>0.9998867545079728</v>
+        <v>0.9998867545079727</v>
       </c>
       <c r="R8">
         <v>1.000119639276266</v>
@@ -1113,13 +1065,13 @@
         <v>1.000238931457356</v>
       </c>
       <c r="V8">
-        <v>0.9998540777789964</v>
+        <v>0.9998540777789963</v>
       </c>
       <c r="W8">
         <v>1.000195168817058</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9984549402444219</v>
+      </c>
+      <c r="D9">
+        <v>1.000865615761592</v>
+      </c>
+      <c r="E9">
         <v>0.9975555924952212</v>
-      </c>
-      <c r="D9">
-        <v>1.004154524165731</v>
-      </c>
-      <c r="E9">
-        <v>0.998807163054576</v>
       </c>
       <c r="F9">
         <v>0.9975555924952212</v>
       </c>
       <c r="G9">
-        <v>1.000865615761592</v>
+        <v>1.002657643708712</v>
       </c>
       <c r="H9">
-        <v>0.9984549402444222</v>
+        <v>0.9990534282456975</v>
       </c>
       <c r="I9">
-        <v>0.9975555924952212</v>
+        <v>1.000712333322245</v>
       </c>
       <c r="J9">
         <v>1.004154524165731</v>
       </c>
       <c r="K9">
-        <v>1.000712333322245</v>
+        <v>0.9975555924952212</v>
       </c>
       <c r="L9">
-        <v>0.9990534282456975</v>
+        <v>1.004154524165731</v>
       </c>
       <c r="M9">
-        <v>1.002657643708712</v>
+        <v>0.998807163054576</v>
       </c>
       <c r="N9">
         <v>0.9975555924952212</v>
@@ -1190,7 +1142,7 @@
         <v>1.000282655124775</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9967222817850127</v>
+      </c>
+      <c r="D10">
+        <v>1.001836640348942</v>
+      </c>
+      <c r="E10">
         <v>0.9948037471501689</v>
-      </c>
-      <c r="D10">
-        <v>1.008816656928121</v>
-      </c>
-      <c r="E10">
-        <v>0.9974746855079175</v>
       </c>
       <c r="F10">
         <v>0.9948037471501689</v>
       </c>
       <c r="G10">
-        <v>1.001836640348942</v>
+        <v>1.005640375772952</v>
       </c>
       <c r="H10">
-        <v>0.9967222817850127</v>
+        <v>0.99798807304614</v>
       </c>
       <c r="I10">
-        <v>0.9948037471501689</v>
+        <v>1.00151479986152</v>
       </c>
       <c r="J10">
         <v>1.008816656928121</v>
       </c>
       <c r="K10">
-        <v>1.00151479986152</v>
+        <v>0.9948037471501689</v>
       </c>
       <c r="L10">
-        <v>0.9979880730461402</v>
+        <v>1.008816656928121</v>
       </c>
       <c r="M10">
-        <v>1.005640375772952</v>
+        <v>0.9974746855079175</v>
       </c>
       <c r="N10">
         <v>0.9948037471501689</v>
@@ -1261,7 +1213,7 @@
         <v>1.000599657550097</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9944054472325879</v>
+      </c>
+      <c r="D11">
+        <v>1.003132385099817</v>
+      </c>
+      <c r="E11">
         <v>0.9911646579079396</v>
-      </c>
-      <c r="D11">
-        <v>1.015045646425702</v>
-      </c>
-      <c r="E11">
-        <v>0.9956738667479358</v>
       </c>
       <c r="F11">
         <v>0.9911646579079396</v>
       </c>
       <c r="G11">
-        <v>1.003132385099817</v>
+        <v>1.00962162322051</v>
       </c>
       <c r="H11">
-        <v>0.9944054472325879</v>
+        <v>0.9965762135780646</v>
       </c>
       <c r="I11">
-        <v>0.9911646579079396</v>
+        <v>1.00257339279021</v>
       </c>
       <c r="J11">
         <v>1.015045646425702</v>
       </c>
       <c r="K11">
-        <v>1.00257339279021</v>
+        <v>0.9911646579079396</v>
       </c>
       <c r="L11">
-        <v>0.9965762135780646</v>
+        <v>1.015045646425702</v>
       </c>
       <c r="M11">
-        <v>1.00962162322051</v>
+        <v>0.9956738667479358</v>
       </c>
       <c r="N11">
         <v>0.9911646579079396</v>
@@ -1332,7 +1284,7 @@
         <v>1.001024154125346</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.050866482172833</v>
+      </c>
+      <c r="D12">
+        <v>0.9695178793910392</v>
+      </c>
+      <c r="E12">
         <v>1.112777036505603</v>
-      </c>
-      <c r="D12">
-        <v>0.8585719803706373</v>
-      </c>
-      <c r="E12">
-        <v>1.024003622592169</v>
       </c>
       <c r="F12">
         <v>1.112777036505603</v>
       </c>
       <c r="G12">
-        <v>0.9695178793910392</v>
+        <v>0.9066378481977073</v>
       </c>
       <c r="H12">
-        <v>1.050866482172833</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="I12">
-        <v>1.112777036505603</v>
+        <v>0.9651061255617663</v>
       </c>
       <c r="J12">
         <v>0.8585719803706373</v>
       </c>
       <c r="K12">
-        <v>0.9651061255617663</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="L12">
-        <v>1.041452924960361</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="M12">
-        <v>0.9066378481977073</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="N12">
         <v>1.112777036505603</v>
@@ -1379,22 +1331,22 @@
         <v>1.024003622592169</v>
       </c>
       <c r="P12">
-        <v>0.9412878014814031</v>
+        <v>0.9412878014814032</v>
       </c>
       <c r="Q12">
         <v>0.9967607509916041</v>
       </c>
       <c r="R12">
-        <v>0.998450879822803</v>
+        <v>0.9984508798228031</v>
       </c>
       <c r="S12">
-        <v>0.9506978274512817</v>
+        <v>0.950697827451282</v>
       </c>
       <c r="T12">
-        <v>0.998450879822803</v>
+        <v>0.9984508798228031</v>
       </c>
       <c r="U12">
-        <v>0.991217629714862</v>
+        <v>0.9912176297148622</v>
       </c>
       <c r="V12">
         <v>1.01552951107301</v>
@@ -1403,7 +1355,7 @@
         <v>0.9911167374690144</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.016228222497659</v>
+      </c>
+      <c r="D13">
+        <v>0.99081120536665</v>
+      </c>
+      <c r="E13">
         <v>1.020170739868685</v>
-      </c>
-      <c r="D13">
-        <v>0.9591919345468271</v>
-      </c>
-      <c r="E13">
-        <v>1.015334925193843</v>
       </c>
       <c r="F13">
         <v>1.020170739868685</v>
       </c>
       <c r="G13">
-        <v>0.99081120536665</v>
+        <v>0.9736620774044245</v>
       </c>
       <c r="H13">
-        <v>1.016228222497659</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="I13">
+        <v>0.9943106471279164</v>
+      </c>
+      <c r="J13">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="K13">
         <v>1.020170739868685</v>
       </c>
-      <c r="J13">
-        <v>0.9591919345468271</v>
-      </c>
-      <c r="K13">
-        <v>0.9943106471279164</v>
-      </c>
       <c r="L13">
-        <v>1.00761171154043</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="M13">
-        <v>0.9736620774044245</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="N13">
         <v>1.020170739868685</v>
@@ -1450,7 +1402,7 @@
         <v>1.015334925193843</v>
       </c>
       <c r="P13">
-        <v>0.9872634298703351</v>
+        <v>0.987263429870335</v>
       </c>
       <c r="Q13">
         <v>1.003073065280247</v>
@@ -1459,7 +1411,7 @@
         <v>0.9982325332031184</v>
       </c>
       <c r="S13">
-        <v>0.9884460217024401</v>
+        <v>0.98844602170244</v>
       </c>
       <c r="T13">
         <v>0.9982325332031184</v>
@@ -1474,7 +1426,7 @@
         <v>0.9971651829433044</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.034090599972796</v>
+      </c>
+      <c r="D14">
+        <v>0.9835546829516593</v>
+      </c>
+      <c r="E14">
         <v>1.005576267777883</v>
-      </c>
-      <c r="D14">
-        <v>0.9167794763808607</v>
-      </c>
-      <c r="E14">
-        <v>1.04932377377107</v>
       </c>
       <c r="F14">
         <v>1.005576267777883</v>
       </c>
       <c r="G14">
-        <v>0.9835546829516593</v>
+        <v>0.9505635915404078</v>
       </c>
       <c r="H14">
-        <v>1.034090599972796</v>
+        <v>1.005060901835656</v>
       </c>
       <c r="I14">
-        <v>1.005576267777883</v>
+        <v>1.001298447372552</v>
       </c>
       <c r="J14">
         <v>0.9167794763808607</v>
       </c>
       <c r="K14">
-        <v>1.001298447372552</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="L14">
-        <v>1.005060901835656</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="M14">
-        <v>0.9505635915404078</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="N14">
         <v>1.005576267777883</v>
@@ -1545,7 +1497,7 @@
         <v>0.9932809677003605</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,46 +1505,46 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.001411331558807</v>
+      </c>
+      <c r="D15">
+        <v>0.9978967078631088</v>
+      </c>
+      <c r="E15">
         <v>1.026029837396284</v>
-      </c>
-      <c r="D15">
-        <v>0.9920795375638962</v>
-      </c>
-      <c r="E15">
-        <v>0.9897720585145821</v>
       </c>
       <c r="F15">
         <v>1.026029837396284</v>
       </c>
       <c r="G15">
-        <v>0.9978967078631088</v>
+        <v>0.993052460704794</v>
       </c>
       <c r="H15">
-        <v>1.001411331558807</v>
+        <v>1.008643148041779</v>
       </c>
       <c r="I15">
+        <v>0.9909735381015758</v>
+      </c>
+      <c r="J15">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="K15">
         <v>1.026029837396284</v>
       </c>
-      <c r="J15">
-        <v>0.9920795375638962</v>
-      </c>
-      <c r="K15">
-        <v>0.990973538101576</v>
-      </c>
       <c r="L15">
-        <v>1.008643148041779</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="M15">
-        <v>0.993052460704794</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="N15">
         <v>1.026029837396284</v>
       </c>
       <c r="O15">
-        <v>0.9897720585145821</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="P15">
-        <v>0.9909257980392392</v>
+        <v>0.990925798039239</v>
       </c>
       <c r="Q15">
         <v>0.9938343831888454</v>
@@ -1601,7 +1553,7 @@
         <v>1.002627144491587</v>
       </c>
       <c r="S15">
-        <v>0.9932494346471957</v>
+        <v>0.9932494346471956</v>
       </c>
       <c r="T15">
         <v>1.002627144491587</v>
@@ -1616,7 +1568,7 @@
         <v>0.9999823274681032</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000018086721112</v>
+        <v>0.9083980333390642</v>
       </c>
       <c r="D16">
-        <v>1.000085630439117</v>
+        <v>1.05354481026009</v>
       </c>
       <c r="E16">
-        <v>0.9999379111445511</v>
+        <v>0.8194801800992695</v>
       </c>
       <c r="F16">
-        <v>1.000018086721112</v>
+        <v>0.8194801800992695</v>
       </c>
       <c r="G16">
-        <v>1.000014958918898</v>
+        <v>1.163979061995549</v>
       </c>
       <c r="H16">
-        <v>0.9999646815454767</v>
+        <v>0.9325914881892857</v>
       </c>
       <c r="I16">
-        <v>1.000018086721112</v>
+        <v>1.054855861014439</v>
       </c>
       <c r="J16">
-        <v>1.000085630439117</v>
+        <v>1.25125818600117</v>
       </c>
       <c r="K16">
-        <v>0.9999899814696643</v>
+        <v>0.8194801800992695</v>
       </c>
       <c r="L16">
-        <v>1.000001547042827</v>
+        <v>1.25125818600117</v>
       </c>
       <c r="M16">
-        <v>1.000047686594542</v>
+        <v>0.9460869488008667</v>
       </c>
       <c r="N16">
-        <v>1.000018086721112</v>
+        <v>0.8194801800992695</v>
       </c>
       <c r="O16">
-        <v>0.9999379111445511</v>
+        <v>0.9460869488008667</v>
       </c>
       <c r="P16">
-        <v>1.000011770791834</v>
+        <v>1.098672567401018</v>
       </c>
       <c r="Q16">
-        <v>0.9999764350317246</v>
+        <v>0.9998158795304781</v>
       </c>
       <c r="R16">
-        <v>1.000013876101593</v>
+        <v>1.005608438300435</v>
       </c>
       <c r="S16">
-        <v>1.000012833500855</v>
+        <v>1.083629981687375</v>
       </c>
       <c r="T16">
-        <v>1.000013876101593</v>
+        <v>1.005608438300435</v>
       </c>
       <c r="U16">
-        <v>1.000014146805919</v>
+        <v>1.017592531290349</v>
       </c>
       <c r="V16">
-        <v>1.000014934788958</v>
+        <v>0.9779700610521329</v>
       </c>
       <c r="W16">
-        <v>1.000007560484523</v>
+        <v>1.016274321212467</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9992499930584626</v>
+        <v>0.9240488991080517</v>
       </c>
       <c r="D17">
-        <v>1.001161599246209</v>
+        <v>1.044108065697469</v>
       </c>
       <c r="E17">
-        <v>0.999706161075569</v>
+        <v>0.8553532240592526</v>
       </c>
       <c r="F17">
-        <v>0.9992499930584626</v>
+        <v>0.8553532240592526</v>
       </c>
       <c r="G17">
-        <v>1.000243020245334</v>
+        <v>1.135020965313368</v>
       </c>
       <c r="H17">
-        <v>0.9995731993040173</v>
+        <v>0.9457385453222106</v>
       </c>
       <c r="I17">
-        <v>0.9992499930584626</v>
+        <v>1.043709077191976</v>
       </c>
       <c r="J17">
-        <v>1.001161599246209</v>
+        <v>1.207507334678513</v>
       </c>
       <c r="K17">
-        <v>1.000223012288042</v>
+        <v>0.8553532240592526</v>
       </c>
       <c r="L17">
-        <v>0.9997137932173426</v>
+        <v>1.207507334678513</v>
       </c>
       <c r="M17">
-        <v>1.000748621565784</v>
+        <v>0.9529113099409137</v>
       </c>
       <c r="N17">
-        <v>0.9992499930584626</v>
+        <v>0.8553532240592526</v>
       </c>
       <c r="O17">
-        <v>0.999706161075569</v>
+        <v>0.9529113099409137</v>
       </c>
       <c r="P17">
-        <v>1.000433880160889</v>
+        <v>1.080209322309713</v>
       </c>
       <c r="Q17">
-        <v>0.9999745906604514</v>
+        <v>0.9985096878191915</v>
       </c>
       <c r="R17">
-        <v>1.000039251126747</v>
+        <v>1.00525728955956</v>
       </c>
       <c r="S17">
-        <v>1.000370260189037</v>
+        <v>1.068175570105632</v>
       </c>
       <c r="T17">
-        <v>1.000039251126747</v>
+        <v>1.00525728955956</v>
       </c>
       <c r="U17">
-        <v>1.000090193406394</v>
+        <v>1.014969983594037</v>
       </c>
       <c r="V17">
-        <v>0.9999221533368076</v>
+        <v>0.9830466316870803</v>
       </c>
       <c r="W17">
-        <v>1.000077425000095</v>
+        <v>1.013549677663969</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9971900422460284</v>
+        <v>0.9554484155915477</v>
       </c>
       <c r="D18">
-        <v>1.003985140988001</v>
+        <v>1.025185139269176</v>
       </c>
       <c r="E18">
-        <v>0.999111128207239</v>
+        <v>0.9271706812365362</v>
       </c>
       <c r="F18">
-        <v>0.9971900422460284</v>
+        <v>0.9271706812365362</v>
       </c>
       <c r="G18">
-        <v>1.000849605078313</v>
+        <v>1.076951420026445</v>
       </c>
       <c r="H18">
-        <v>0.9985418132941517</v>
+        <v>0.9720663134166061</v>
       </c>
       <c r="I18">
-        <v>0.9971900422460284</v>
+        <v>1.021400027400673</v>
       </c>
       <c r="J18">
-        <v>1.003985140988001</v>
+        <v>1.119753665287079</v>
       </c>
       <c r="K18">
-        <v>1.000851090309475</v>
+        <v>0.9271706812365362</v>
       </c>
       <c r="L18">
-        <v>0.9989487580258953</v>
+        <v>1.119753665287079</v>
       </c>
       <c r="M18">
-        <v>1.002597239622118</v>
+        <v>0.9666748014550139</v>
       </c>
       <c r="N18">
-        <v>0.9971900422460284</v>
+        <v>0.9271706812365362</v>
       </c>
       <c r="O18">
-        <v>0.999111128207239</v>
+        <v>0.9666748014550139</v>
       </c>
       <c r="P18">
-        <v>1.00154813459762</v>
+        <v>1.043214233371046</v>
       </c>
       <c r="Q18">
-        <v>0.9999803666427762</v>
+        <v>0.9959299703620952</v>
       </c>
       <c r="R18">
-        <v>1.000095437147089</v>
+        <v>1.00453304932621</v>
       </c>
       <c r="S18">
-        <v>1.001315291424518</v>
+        <v>1.03720453533709</v>
       </c>
       <c r="T18">
-        <v>1.000095437147089</v>
+        <v>1.004533049326209</v>
       </c>
       <c r="U18">
-        <v>1.000283979129895</v>
+        <v>1.009696071811951</v>
       </c>
       <c r="V18">
-        <v>0.9996651917531221</v>
+        <v>0.9931909936968681</v>
       </c>
       <c r="W18">
-        <v>1.000259352221403</v>
+        <v>1.008081307960385</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9510529346045095</v>
+      </c>
+      <c r="D19">
+        <v>1.02744555469072</v>
+      </c>
+      <c r="E19">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="F19">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="G19">
+        <v>1.084387576716712</v>
+      </c>
+      <c r="H19">
+        <v>0.9697020258145181</v>
+      </c>
+      <c r="I19">
+        <v>1.022858179739395</v>
+      </c>
+      <c r="J19">
+        <v>1.131874979841144</v>
+      </c>
+      <c r="K19">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="L19">
+        <v>1.131874979841144</v>
+      </c>
+      <c r="M19">
+        <v>0.9626283443325501</v>
+      </c>
+      <c r="N19">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="O19">
+        <v>0.9626283443325501</v>
+      </c>
+      <c r="P19">
+        <v>1.047251662086847</v>
+      </c>
+      <c r="Q19">
+        <v>0.9950369495116351</v>
+      </c>
+      <c r="R19">
+        <v>1.005403929057443</v>
+      </c>
+      <c r="S19">
+        <v>1.040649626288138</v>
+      </c>
+      <c r="T19">
+        <v>1.005403929057443</v>
+      </c>
+      <c r="U19">
+        <v>1.010914335465762</v>
+      </c>
+      <c r="V19">
+        <v>0.9930731609723363</v>
+      </c>
+      <c r="W19">
+        <v>1.008957257342273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999646815454767</v>
+      </c>
+      <c r="D20">
+        <v>1.000014958918898</v>
+      </c>
+      <c r="E20">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="F20">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="G20">
+        <v>1.000047686594541</v>
+      </c>
+      <c r="H20">
+        <v>1.000001547042827</v>
+      </c>
+      <c r="I20">
+        <v>0.9999899814696643</v>
+      </c>
+      <c r="J20">
+        <v>1.000085630439117</v>
+      </c>
+      <c r="K20">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="L20">
+        <v>1.000085630439117</v>
+      </c>
+      <c r="M20">
+        <v>0.9999379111445513</v>
+      </c>
+      <c r="N20">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="O20">
+        <v>0.9999379111445513</v>
+      </c>
+      <c r="P20">
+        <v>1.000011770791834</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999764350317246</v>
+      </c>
+      <c r="R20">
+        <v>1.000013876101593</v>
+      </c>
+      <c r="S20">
+        <v>1.000012833500856</v>
+      </c>
+      <c r="T20">
+        <v>1.000013876101593</v>
+      </c>
+      <c r="U20">
+        <v>1.00001414680592</v>
+      </c>
+      <c r="V20">
+        <v>1.000014934788958</v>
+      </c>
+      <c r="W20">
+        <v>1.000007560484523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9995731993040173</v>
+      </c>
+      <c r="D21">
+        <v>1.000243020245334</v>
+      </c>
+      <c r="E21">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="F21">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="G21">
+        <v>1.000748621565784</v>
+      </c>
+      <c r="H21">
+        <v>0.9997137932173426</v>
+      </c>
+      <c r="I21">
+        <v>1.000223012288042</v>
+      </c>
+      <c r="J21">
+        <v>1.00116159924621</v>
+      </c>
+      <c r="K21">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="L21">
+        <v>1.00116159924621</v>
+      </c>
+      <c r="M21">
+        <v>0.999706161075569</v>
+      </c>
+      <c r="N21">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="O21">
+        <v>0.999706161075569</v>
+      </c>
+      <c r="P21">
+        <v>1.000433880160889</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999745906604514</v>
+      </c>
+      <c r="R21">
+        <v>1.000039251126747</v>
+      </c>
+      <c r="S21">
+        <v>1.000370260189037</v>
+      </c>
+      <c r="T21">
+        <v>1.000039251126747</v>
+      </c>
+      <c r="U21">
+        <v>1.000090193406394</v>
+      </c>
+      <c r="V21">
+        <v>0.9999221533368076</v>
+      </c>
+      <c r="W21">
+        <v>1.000077425000095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9985418132941519</v>
+      </c>
+      <c r="D22">
+        <v>1.000849605078314</v>
+      </c>
+      <c r="E22">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="F22">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="G22">
+        <v>1.002597239622118</v>
+      </c>
+      <c r="H22">
+        <v>0.9989487580258953</v>
+      </c>
+      <c r="I22">
+        <v>1.000851090309475</v>
+      </c>
+      <c r="J22">
+        <v>1.003985140988001</v>
+      </c>
+      <c r="K22">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="L22">
+        <v>1.003985140988001</v>
+      </c>
+      <c r="M22">
+        <v>0.999111128207239</v>
+      </c>
+      <c r="N22">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="O22">
+        <v>0.999111128207239</v>
+      </c>
+      <c r="P22">
+        <v>1.00154813459762</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999803666427762</v>
+      </c>
+      <c r="R22">
+        <v>1.000095437147089</v>
+      </c>
+      <c r="S22">
+        <v>1.001315291424518</v>
+      </c>
+      <c r="T22">
+        <v>1.000095437147089</v>
+      </c>
+      <c r="U22">
+        <v>1.000283979129895</v>
+      </c>
+      <c r="V22">
+        <v>0.9996651917531221</v>
+      </c>
+      <c r="W22">
+        <v>1.000259352221403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9966369341329036</v>
+      </c>
+      <c r="D23">
+        <v>1.001973160159086</v>
+      </c>
+      <c r="E23">
         <v>0.9932450426349538</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9932450426349538</v>
+      </c>
+      <c r="G23">
+        <v>1.006044117937264</v>
+      </c>
+      <c r="H23">
+        <v>0.9974839273171849</v>
+      </c>
+      <c r="I23">
+        <v>1.002058908496575</v>
+      </c>
+      <c r="J23">
         <v>1.00924537170932</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>0.9932450426349538</v>
+      </c>
+      <c r="L23">
+        <v>1.00924537170932</v>
+      </c>
+      <c r="M23">
         <v>0.9980810655714761</v>
       </c>
-      <c r="F19">
+      <c r="N23">
         <v>0.9932450426349538</v>
       </c>
-      <c r="G19">
-        <v>1.001973160159086</v>
-      </c>
-      <c r="H19">
-        <v>0.9966369341329039</v>
-      </c>
-      <c r="I19">
-        <v>0.9932450426349538</v>
-      </c>
-      <c r="J19">
-        <v>1.00924537170932</v>
-      </c>
-      <c r="K19">
-        <v>1.002058908496575</v>
-      </c>
-      <c r="L19">
-        <v>0.9974839273171853</v>
-      </c>
-      <c r="M19">
-        <v>1.006044117937264</v>
-      </c>
-      <c r="N19">
-        <v>0.9932450426349538</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9980810655714761</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.003663218640398</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000027112865281</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00019049330525</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.003099865813294</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00019049330525</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000636160018709</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9991579365419578</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000596065994845</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9953289224283863</v>
+        <v>0.946760600172917</v>
       </c>
       <c r="D3">
-        <v>1.002734008385656</v>
+        <v>1.030119338537464</v>
       </c>
       <c r="E3">
-        <v>0.9906757081722694</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="F3">
-        <v>0.9906757081722694</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="G3">
-        <v>1.008388359361495</v>
+        <v>1.092147980259361</v>
       </c>
       <c r="H3">
-        <v>0.9965197751834127</v>
+        <v>0.9663133948054755</v>
       </c>
       <c r="I3">
-        <v>1.002838089013154</v>
+        <v>1.025860456585015</v>
       </c>
       <c r="J3">
-        <v>1.012847004818623</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="K3">
-        <v>0.9906757081722694</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="L3">
-        <v>1.012847004818623</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="M3">
-        <v>0.9973088036725599</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="N3">
-        <v>0.9906757081722694</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="O3">
-        <v>0.9973088036725599</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="P3">
-        <v>1.005077904245591</v>
+        <v>1.051974135288185</v>
       </c>
       <c r="Q3">
-        <v>1.000021406029108</v>
+        <v>0.9953530900612384</v>
       </c>
       <c r="R3">
-        <v>1.000277172221151</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="S3">
-        <v>1.004296605625613</v>
+        <v>1.044689203037944</v>
       </c>
       <c r="T3">
-        <v>1.000277172221151</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="U3">
-        <v>1.000891381262277</v>
+        <v>1.011548972228026</v>
       </c>
       <c r="V3">
-        <v>0.9988482466442756</v>
+        <v>0.9916648337420746</v>
       </c>
       <c r="W3">
-        <v>1.000830083879444</v>
+        <v>1.009659790091859</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9909781362807443</v>
+        <v>0.9516140495117381</v>
       </c>
       <c r="D4">
-        <v>1.005283409744854</v>
+        <v>1.027362832787926</v>
       </c>
       <c r="E4">
-        <v>0.9820018796983366</v>
+        <v>0.9205321888035748</v>
       </c>
       <c r="F4">
-        <v>0.9820018796983366</v>
+        <v>0.9205321888035748</v>
       </c>
       <c r="G4">
-        <v>1.016194835447213</v>
+        <v>1.083658308155051</v>
       </c>
       <c r="H4">
-        <v>0.9932864214357938</v>
+        <v>0.9695274371226253</v>
       </c>
       <c r="I4">
-        <v>1.00547891748267</v>
+        <v>1.023368476779719</v>
       </c>
       <c r="J4">
-        <v>1.024794948698685</v>
+        <v>1.130172796898984</v>
       </c>
       <c r="K4">
-        <v>0.9820018796983366</v>
+        <v>0.9205321888035748</v>
       </c>
       <c r="L4">
-        <v>1.024794948698685</v>
+        <v>1.130172796898984</v>
       </c>
       <c r="M4">
-        <v>0.994795216831841</v>
+        <v>0.9639876546776014</v>
       </c>
       <c r="N4">
-        <v>0.9820018796983366</v>
+        <v>0.9205321888035748</v>
       </c>
       <c r="O4">
-        <v>0.994795216831841</v>
+        <v>0.9639876546776014</v>
       </c>
       <c r="P4">
-        <v>1.009795082765263</v>
+        <v>1.047080225788293</v>
       </c>
       <c r="Q4">
-        <v>1.000039313288348</v>
+        <v>0.9956752437327638</v>
       </c>
       <c r="R4">
-        <v>1.000530681742954</v>
+        <v>1.004897546793387</v>
       </c>
       <c r="S4">
-        <v>1.00829119175846</v>
+        <v>1.040507761454837</v>
       </c>
       <c r="T4">
-        <v>1.000530681742954</v>
+        <v>1.004897546793387</v>
       </c>
       <c r="U4">
-        <v>1.001718863743429</v>
+        <v>1.010513868292022</v>
       </c>
       <c r="V4">
-        <v>0.9977754669344108</v>
+        <v>0.9925175323943323</v>
       </c>
       <c r="W4">
-        <v>1.001601720702517</v>
+        <v>1.008777968092152</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9826872763545159</v>
+        <v>0.9374625487331544</v>
       </c>
       <c r="D5">
-        <v>1.010123723722107</v>
+        <v>1.035394042264155</v>
       </c>
       <c r="E5">
-        <v>0.965611473284311</v>
+        <v>0.8961262264690024</v>
       </c>
       <c r="F5">
-        <v>0.965611473284311</v>
+        <v>0.8961262264690024</v>
       </c>
       <c r="G5">
-        <v>1.031058073046359</v>
+        <v>1.108394537897574</v>
       </c>
       <c r="H5">
-        <v>0.9871566690989344</v>
+        <v>0.9601870833153633</v>
       </c>
       <c r="I5">
-        <v>1.010458872553534</v>
+        <v>1.030599803665766</v>
       </c>
       <c r="J5">
-        <v>1.047586645744908</v>
+        <v>1.168614081725071</v>
       </c>
       <c r="K5">
-        <v>0.965611473284311</v>
+        <v>0.8961262264690024</v>
       </c>
       <c r="L5">
-        <v>1.047586645744908</v>
+        <v>1.168614081725071</v>
       </c>
       <c r="M5">
-        <v>0.9899442924343865</v>
+        <v>0.9540255058221029</v>
       </c>
       <c r="N5">
-        <v>0.965611473284311</v>
+        <v>0.8961262264690024</v>
       </c>
       <c r="O5">
-        <v>0.9899442924343865</v>
+        <v>0.9540255058221029</v>
       </c>
       <c r="P5">
-        <v>1.018765469089647</v>
+        <v>1.061319793773587</v>
       </c>
       <c r="Q5">
-        <v>1.000034008078247</v>
+        <v>0.994709774043129</v>
       </c>
       <c r="R5">
-        <v>1.001047470487869</v>
+        <v>1.006255271338725</v>
       </c>
       <c r="S5">
-        <v>1.015884887300467</v>
+        <v>1.052677876603776</v>
       </c>
       <c r="T5">
-        <v>1.001047470487869</v>
+        <v>1.006255271338725</v>
       </c>
       <c r="U5">
-        <v>1.003316533796428</v>
+        <v>1.013539964070083</v>
       </c>
       <c r="V5">
-        <v>0.9957755216940049</v>
+        <v>0.9900572165498668</v>
       </c>
       <c r="W5">
-        <v>1.003078378279882</v>
+        <v>1.011350478736524</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9745944122235028</v>
+        <v>0.9286848620454523</v>
       </c>
       <c r="D6">
-        <v>1.014848787757401</v>
+        <v>1.040366335284092</v>
       </c>
       <c r="E6">
-        <v>0.9496177459003916</v>
+        <v>0.8811350593181829</v>
       </c>
       <c r="F6">
-        <v>0.9496177459003916</v>
+        <v>0.8811350593181829</v>
       </c>
       <c r="G6">
-        <v>1.045564518416457</v>
+        <v>1.123711042727273</v>
       </c>
       <c r="H6">
-        <v>0.981175858820131</v>
+        <v>0.9544402249431824</v>
       </c>
       <c r="I6">
-        <v>1.015318283444446</v>
+        <v>1.035033012954545</v>
       </c>
       <c r="J6">
-        <v>1.069830200600768</v>
+        <v>1.192437406250001</v>
       </c>
       <c r="K6">
-        <v>0.9496177459003916</v>
+        <v>0.8811350593181829</v>
       </c>
       <c r="L6">
-        <v>1.069830200600768</v>
+        <v>1.192437406250001</v>
       </c>
       <c r="M6">
-        <v>0.9852064221608864</v>
+        <v>0.9477769226136372</v>
       </c>
       <c r="N6">
-        <v>0.9496177459003916</v>
+        <v>0.8811350593181829</v>
       </c>
       <c r="O6">
-        <v>0.9852064221608864</v>
+        <v>0.9477769226136372</v>
       </c>
       <c r="P6">
-        <v>1.027518311380827</v>
+        <v>1.070107164431819</v>
       </c>
       <c r="Q6">
-        <v>1.000027604959144</v>
+        <v>0.9940716289488648</v>
       </c>
       <c r="R6">
-        <v>1.001551456220682</v>
+        <v>1.007116462727274</v>
       </c>
       <c r="S6">
-        <v>1.023295136839685</v>
+        <v>1.06019355471591</v>
       </c>
       <c r="T6">
-        <v>1.001551456220682</v>
+        <v>1.007116462727274</v>
       </c>
       <c r="U6">
-        <v>1.004875789104862</v>
+        <v>1.015428930866478</v>
       </c>
       <c r="V6">
-        <v>0.9938241804639677</v>
+        <v>0.9885701565568192</v>
       </c>
       <c r="W6">
-        <v>1.004519528665498</v>
+        <v>1.012948108267046</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996099187177883</v>
+        <v>0.9030198413379814</v>
       </c>
       <c r="D7">
-        <v>1.000218068540531</v>
+        <v>1.057405236040285</v>
       </c>
       <c r="E7">
-        <v>0.9993866145497862</v>
+        <v>0.7971733512963884</v>
       </c>
       <c r="F7">
-        <v>0.9993866145497862</v>
+        <v>0.7971733512963884</v>
       </c>
       <c r="G7">
-        <v>1.000670609362117</v>
+        <v>1.175736549803989</v>
       </c>
       <c r="H7">
-        <v>0.9997618937389866</v>
+        <v>0.9249007984085366</v>
       </c>
       <c r="I7">
-        <v>1.000178426198716</v>
+        <v>1.062223032463453</v>
       </c>
       <c r="J7">
-        <v>1.001049475251303</v>
+        <v>1.267708310291564</v>
       </c>
       <c r="K7">
-        <v>0.9993866145497862</v>
+        <v>0.7971733512963884</v>
       </c>
       <c r="L7">
-        <v>1.001049475251303</v>
+        <v>1.267708310291564</v>
       </c>
       <c r="M7">
-        <v>0.9996971855628348</v>
+        <v>0.9484563601344612</v>
       </c>
       <c r="N7">
-        <v>0.9993866145497862</v>
+        <v>0.7971733512963884</v>
       </c>
       <c r="O7">
-        <v>0.9996971855628348</v>
+        <v>0.9484563601344612</v>
       </c>
       <c r="P7">
-        <v>1.000373330407069</v>
+        <v>1.108082335213013</v>
       </c>
       <c r="Q7">
-        <v>0.999957627051683</v>
+        <v>1.002930798087373</v>
       </c>
       <c r="R7">
-        <v>1.000044425121308</v>
+        <v>1.004446007240805</v>
       </c>
       <c r="S7">
-        <v>1.000321576451556</v>
+        <v>1.091189968822104</v>
       </c>
       <c r="T7">
-        <v>1.000044425121308</v>
+        <v>1.004446007240805</v>
       </c>
       <c r="U7">
-        <v>1.000087835976114</v>
+        <v>1.017685814440675</v>
       </c>
       <c r="V7">
-        <v>0.9999475916908483</v>
+        <v>0.9735833218118175</v>
       </c>
       <c r="W7">
-        <v>1.000071523990258</v>
+        <v>1.017077934972082</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989340568559617</v>
+        <v>0.9018153213447625</v>
       </c>
       <c r="D8">
-        <v>1.000596808000628</v>
+        <v>1.058058655147848</v>
       </c>
       <c r="E8">
-        <v>0.9983146630655566</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="F8">
-        <v>0.9983146630655566</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="G8">
-        <v>1.00183374505399</v>
+        <v>1.17775512676139</v>
       </c>
       <c r="H8">
-        <v>0.9993468749156335</v>
+        <v>0.9242586888855144</v>
       </c>
       <c r="I8">
-        <v>1.000490947881454</v>
+        <v>1.062667509261913</v>
       </c>
       <c r="J8">
-        <v>1.002867553747923</v>
+        <v>1.270913357240371</v>
       </c>
       <c r="K8">
-        <v>0.9983146630655566</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="L8">
-        <v>1.002867553747923</v>
+        <v>1.270913357240371</v>
       </c>
       <c r="M8">
-        <v>0.9991767010153179</v>
+        <v>0.9473807469373492</v>
       </c>
       <c r="N8">
-        <v>0.9983146630655566</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="O8">
-        <v>0.9991767010153179</v>
+        <v>0.9473807469373492</v>
       </c>
       <c r="P8">
-        <v>1.00102212738162</v>
+        <v>1.10914705208886</v>
       </c>
       <c r="Q8">
-        <v>0.9998867545079727</v>
+        <v>1.002719701042599</v>
       </c>
       <c r="R8">
-        <v>1.000119639276266</v>
+        <v>1.004624123650204</v>
       </c>
       <c r="S8">
-        <v>1.000880354254623</v>
+        <v>1.092117586441856</v>
       </c>
       <c r="T8">
-        <v>1.000119639276266</v>
+        <v>1.004624123650204</v>
       </c>
       <c r="U8">
-        <v>1.000238931457356</v>
+        <v>1.017982756524615</v>
       </c>
       <c r="V8">
-        <v>0.9998540777789963</v>
+        <v>0.973501858574271</v>
       </c>
       <c r="W8">
-        <v>1.000195168817058</v>
+        <v>1.017303459044005</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9984549402444219</v>
+        <v>0.9009195287425096</v>
       </c>
       <c r="D9">
-        <v>1.000865615761592</v>
+        <v>1.058543812192909</v>
       </c>
       <c r="E9">
-        <v>0.9975555924952212</v>
+        <v>0.7943917107002773</v>
       </c>
       <c r="F9">
-        <v>0.9975555924952212</v>
+        <v>0.7943917107002773</v>
       </c>
       <c r="G9">
-        <v>1.002657643708712</v>
+        <v>1.179257449046341</v>
       </c>
       <c r="H9">
-        <v>0.9990534282456975</v>
+        <v>0.9237799925189122</v>
       </c>
       <c r="I9">
-        <v>1.000712333322245</v>
+        <v>1.062997880438675</v>
       </c>
       <c r="J9">
-        <v>1.004154524165731</v>
+        <v>1.2733007354676</v>
       </c>
       <c r="K9">
-        <v>0.9975555924952212</v>
+        <v>0.7943917107002773</v>
       </c>
       <c r="L9">
-        <v>1.004154524165731</v>
+        <v>1.2733007354676</v>
       </c>
       <c r="M9">
-        <v>0.998807163054576</v>
+        <v>0.9465813439138655</v>
       </c>
       <c r="N9">
-        <v>0.9975555924952212</v>
+        <v>0.7943917107002773</v>
       </c>
       <c r="O9">
-        <v>0.998807163054576</v>
+        <v>0.9465813439138655</v>
       </c>
       <c r="P9">
-        <v>1.001480843610153</v>
+        <v>1.109941039690733</v>
       </c>
       <c r="Q9">
-        <v>0.9998363894080839</v>
+        <v>1.002562578053387</v>
       </c>
       <c r="R9">
-        <v>1.000172426571843</v>
+        <v>1.004757930027248</v>
       </c>
       <c r="S9">
-        <v>1.001275767660633</v>
+        <v>1.092808630524792</v>
       </c>
       <c r="T9">
-        <v>1.000172426571843</v>
+        <v>1.004757930027248</v>
       </c>
       <c r="U9">
-        <v>1.00034572386928</v>
+        <v>1.018204400568663</v>
       </c>
       <c r="V9">
-        <v>0.9997876975944682</v>
+        <v>0.9734418625949859</v>
       </c>
       <c r="W9">
-        <v>1.000282655124775</v>
+        <v>1.017471556627636</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9967222817850127</v>
+        <v>0.8975987336904356</v>
       </c>
       <c r="D10">
-        <v>1.001836640348942</v>
+        <v>1.06034282106042</v>
       </c>
       <c r="E10">
-        <v>0.9948037471501689</v>
+        <v>0.7899932117232987</v>
       </c>
       <c r="F10">
-        <v>0.9948037471501689</v>
+        <v>0.7899932117232987</v>
       </c>
       <c r="G10">
-        <v>1.005640375772952</v>
+        <v>1.184826024294558</v>
       </c>
       <c r="H10">
-        <v>0.99798807304614</v>
+        <v>0.9220061298147326</v>
       </c>
       <c r="I10">
-        <v>1.00151479986152</v>
+        <v>1.064222712571855</v>
       </c>
       <c r="J10">
-        <v>1.008816656928121</v>
+        <v>1.282148656296241</v>
       </c>
       <c r="K10">
-        <v>0.9948037471501689</v>
+        <v>0.7899932117232987</v>
       </c>
       <c r="L10">
-        <v>1.008816656928121</v>
+        <v>1.282148656296241</v>
       </c>
       <c r="M10">
-        <v>0.9974746855079175</v>
+        <v>0.9436175545463598</v>
       </c>
       <c r="N10">
-        <v>0.9948037471501689</v>
+        <v>0.7899932117232987</v>
       </c>
       <c r="O10">
-        <v>0.9974746855079175</v>
+        <v>0.9436175545463598</v>
       </c>
       <c r="P10">
-        <v>1.003145671218019</v>
+        <v>1.1128831054213</v>
       </c>
       <c r="Q10">
-        <v>0.99965566292843</v>
+        <v>1.00198018780339</v>
       </c>
       <c r="R10">
-        <v>1.000365029862069</v>
+        <v>1.0052531408553</v>
       </c>
       <c r="S10">
-        <v>1.002709327594994</v>
+        <v>1.095369677301007</v>
       </c>
       <c r="T10">
-        <v>1.000365029862069</v>
+        <v>1.0052531408553</v>
       </c>
       <c r="U10">
-        <v>1.000732932483787</v>
+        <v>1.01902556090658</v>
       </c>
       <c r="V10">
-        <v>0.9995470954170639</v>
+        <v>0.9732190910699237</v>
       </c>
       <c r="W10">
-        <v>1.000599657550097</v>
+        <v>1.018094480499738</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9944054472325879</v>
+        <v>0.9946094029539509</v>
       </c>
       <c r="D11">
-        <v>1.003132385099817</v>
+        <v>1.00315743699402</v>
       </c>
       <c r="E11">
-        <v>0.9911646579079396</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="F11">
-        <v>0.9911646579079396</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="G11">
-        <v>1.00962162322051</v>
+        <v>1.009660685136929</v>
       </c>
       <c r="H11">
-        <v>0.9965762135780646</v>
+        <v>0.9960122198371558</v>
       </c>
       <c r="I11">
-        <v>1.00257339279021</v>
+        <v>1.003254928708039</v>
       </c>
       <c r="J11">
-        <v>1.015045646425702</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="K11">
-        <v>0.9911646579079396</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="L11">
-        <v>1.015045646425702</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="M11">
-        <v>0.9956738667479358</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="N11">
-        <v>0.9911646579079396</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="O11">
-        <v>0.9956738667479358</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="P11">
-        <v>1.005359756586819</v>
+        <v>1.005824469761057</v>
       </c>
       <c r="Q11">
-        <v>0.9994031259238763</v>
+        <v>1.000009328654498</v>
       </c>
       <c r="R11">
-        <v>1.000628057027193</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="S11">
-        <v>1.004617299424485</v>
+        <v>1.004935458838712</v>
       </c>
       <c r="T11">
-        <v>1.000628057027193</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="U11">
-        <v>1.001254139045349</v>
+        <v>1.001027378940787</v>
       </c>
       <c r="V11">
-        <v>0.9992362428178669</v>
+        <v>0.9986825310020324</v>
       </c>
       <c r="W11">
-        <v>1.001024154125346</v>
+        <v>1.000955844049903</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.050866482172833</v>
+        <v>0.9971642535729879</v>
       </c>
       <c r="D12">
-        <v>0.9695178793910392</v>
+        <v>1.001663203146828</v>
       </c>
       <c r="E12">
-        <v>1.112777036505603</v>
+        <v>0.9942955189786967</v>
       </c>
       <c r="F12">
-        <v>1.112777036505603</v>
+        <v>0.9942955189786967</v>
       </c>
       <c r="G12">
-        <v>0.9066378481977073</v>
+        <v>1.005099444285896</v>
       </c>
       <c r="H12">
-        <v>1.041452924960361</v>
+        <v>0.9978742127625375</v>
       </c>
       <c r="I12">
-        <v>0.9651061255617663</v>
+        <v>1.001738756449214</v>
       </c>
       <c r="J12">
-        <v>0.8585719803706373</v>
+        <v>1.007802118943254</v>
       </c>
       <c r="K12">
-        <v>1.112777036505603</v>
+        <v>0.9942955189786967</v>
       </c>
       <c r="L12">
-        <v>0.8585719803706373</v>
+        <v>1.007802118943254</v>
       </c>
       <c r="M12">
-        <v>1.024003622592169</v>
+        <v>0.9983865846519668</v>
       </c>
       <c r="N12">
-        <v>1.112777036505603</v>
+        <v>0.9942955189786967</v>
       </c>
       <c r="O12">
-        <v>1.024003622592169</v>
+        <v>0.9983865846519668</v>
       </c>
       <c r="P12">
-        <v>0.9412878014814032</v>
+        <v>1.003094351797611</v>
       </c>
       <c r="Q12">
-        <v>0.9967607509916041</v>
+        <v>1.000024893899397</v>
       </c>
       <c r="R12">
-        <v>0.9984508798228031</v>
+        <v>1.000161407524639</v>
       </c>
       <c r="S12">
-        <v>0.950697827451282</v>
+        <v>1.00261730224735</v>
       </c>
       <c r="T12">
-        <v>0.9984508798228031</v>
+        <v>1.000161407524639</v>
       </c>
       <c r="U12">
-        <v>0.9912176297148622</v>
+        <v>1.000536856430186</v>
       </c>
       <c r="V12">
-        <v>1.01552951107301</v>
+        <v>0.9992885889398885</v>
       </c>
       <c r="W12">
-        <v>0.9911167374690144</v>
+        <v>1.000503011598923</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.016228222497659</v>
+        <v>0.9900707631898567</v>
       </c>
       <c r="D13">
-        <v>0.99081120536665</v>
+        <v>1.005819763207737</v>
       </c>
       <c r="E13">
-        <v>1.020170739868685</v>
+        <v>0.9800703603868319</v>
       </c>
       <c r="F13">
-        <v>1.020170739868685</v>
+        <v>0.9800703603868319</v>
       </c>
       <c r="G13">
-        <v>0.9736620774044245</v>
+        <v>1.017848960776307</v>
       </c>
       <c r="H13">
-        <v>1.00761171154043</v>
+        <v>0.9925692545045822</v>
       </c>
       <c r="I13">
-        <v>0.9943106471279164</v>
+        <v>1.006072052961906</v>
       </c>
       <c r="J13">
-        <v>0.9591919345468267</v>
+        <v>1.02731777387529</v>
       </c>
       <c r="K13">
-        <v>1.020170739868685</v>
+        <v>0.9800703603868319</v>
       </c>
       <c r="L13">
-        <v>0.9591919345468267</v>
+        <v>1.02731777387529</v>
       </c>
       <c r="M13">
-        <v>1.015334925193843</v>
+        <v>0.9943302848686233</v>
       </c>
       <c r="N13">
-        <v>1.020170739868685</v>
+        <v>0.9800703603868319</v>
       </c>
       <c r="O13">
-        <v>1.015334925193843</v>
+        <v>0.9943302848686233</v>
       </c>
       <c r="P13">
-        <v>0.987263429870335</v>
+        <v>1.010824029371957</v>
       </c>
       <c r="Q13">
-        <v>1.003073065280247</v>
+        <v>1.00007502403818</v>
       </c>
       <c r="R13">
-        <v>0.9982325332031184</v>
+        <v>1.000572806376915</v>
       </c>
       <c r="S13">
-        <v>0.98844602170244</v>
+        <v>1.00915594065055</v>
       </c>
       <c r="T13">
-        <v>0.9982325332031184</v>
+        <v>1.000572806376915</v>
       </c>
       <c r="U13">
-        <v>0.9963772012440013</v>
+        <v>1.001884545584621</v>
       </c>
       <c r="V13">
-        <v>1.001135908968938</v>
+        <v>0.9975217085450631</v>
       </c>
       <c r="W13">
-        <v>0.9971651829433044</v>
+        <v>1.001762401721392</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.034090599972796</v>
+        <v>0.9869267259342757</v>
       </c>
       <c r="D14">
-        <v>0.9835546829516593</v>
+        <v>1.007648397210626</v>
       </c>
       <c r="E14">
-        <v>1.005576267777883</v>
+        <v>0.9740078724976123</v>
       </c>
       <c r="F14">
-        <v>1.005576267777883</v>
+        <v>0.9740078724976123</v>
       </c>
       <c r="G14">
-        <v>0.9505635915404078</v>
+        <v>1.023454230143547</v>
       </c>
       <c r="H14">
-        <v>1.005060901835656</v>
+        <v>0.9902968209941752</v>
       </c>
       <c r="I14">
-        <v>1.001298447372552</v>
+        <v>1.007907225753773</v>
       </c>
       <c r="J14">
-        <v>0.9167794763808607</v>
+        <v>1.035927028934333</v>
       </c>
       <c r="K14">
-        <v>1.005576267777883</v>
+        <v>0.9740078724976123</v>
       </c>
       <c r="L14">
-        <v>0.9167794763808607</v>
+        <v>1.035927028934333</v>
       </c>
       <c r="M14">
-        <v>1.04932377377107</v>
+        <v>0.9924172212095295</v>
       </c>
       <c r="N14">
-        <v>1.005576267777883</v>
+        <v>0.9740078724976123</v>
       </c>
       <c r="O14">
-        <v>1.04932377377107</v>
+        <v>0.9924172212095295</v>
       </c>
       <c r="P14">
-        <v>0.9830516250759653</v>
+        <v>1.014172125071931</v>
       </c>
       <c r="Q14">
-        <v>1.016439228361365</v>
+        <v>1.000032809210078</v>
       </c>
       <c r="R14">
-        <v>0.9905598393099377</v>
+        <v>1.000784040880491</v>
       </c>
       <c r="S14">
-        <v>0.9832193110345301</v>
+        <v>1.011997549118163</v>
       </c>
       <c r="T14">
-        <v>0.9905598393099376</v>
+        <v>1.000784040880492</v>
       </c>
       <c r="U14">
-        <v>0.9888085502203681</v>
+        <v>1.002500129963025</v>
       </c>
       <c r="V14">
-        <v>0.992162093731871</v>
+        <v>0.9968016784699426</v>
       </c>
       <c r="W14">
-        <v>0.9932809677003605</v>
+        <v>1.002323190334734</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001411331558807</v>
+        <v>0.9953289224283863</v>
       </c>
       <c r="D15">
-        <v>0.9978967078631088</v>
+        <v>1.002734008385656</v>
       </c>
       <c r="E15">
-        <v>1.026029837396284</v>
+        <v>0.9906757081722694</v>
       </c>
       <c r="F15">
-        <v>1.026029837396284</v>
+        <v>0.9906757081722694</v>
       </c>
       <c r="G15">
-        <v>0.993052460704794</v>
+        <v>1.008388359361495</v>
       </c>
       <c r="H15">
-        <v>1.008643148041779</v>
+        <v>0.9965197751834127</v>
       </c>
       <c r="I15">
-        <v>0.9909735381015758</v>
+        <v>1.002838089013154</v>
       </c>
       <c r="J15">
-        <v>0.9920795375638961</v>
+        <v>1.012847004818623</v>
       </c>
       <c r="K15">
-        <v>1.026029837396284</v>
+        <v>0.9906757081722694</v>
       </c>
       <c r="L15">
-        <v>0.9920795375638961</v>
+        <v>1.012847004818623</v>
       </c>
       <c r="M15">
-        <v>0.9897720585145819</v>
+        <v>0.9973088036725599</v>
       </c>
       <c r="N15">
-        <v>1.026029837396284</v>
+        <v>0.9906757081722694</v>
       </c>
       <c r="O15">
-        <v>0.9897720585145819</v>
+        <v>0.9973088036725599</v>
       </c>
       <c r="P15">
-        <v>0.990925798039239</v>
+        <v>1.005077904245591</v>
       </c>
       <c r="Q15">
-        <v>0.9938343831888454</v>
+        <v>1.000021406029108</v>
       </c>
       <c r="R15">
-        <v>1.002627144491587</v>
+        <v>1.000277172221151</v>
       </c>
       <c r="S15">
-        <v>0.9932494346471956</v>
+        <v>1.004296605625613</v>
       </c>
       <c r="T15">
-        <v>1.002627144491587</v>
+        <v>1.000277172221151</v>
       </c>
       <c r="U15">
-        <v>1.001444535334468</v>
+        <v>1.000891381262277</v>
       </c>
       <c r="V15">
-        <v>1.006361595746831</v>
+        <v>0.9988482466442756</v>
       </c>
       <c r="W15">
-        <v>0.9999823274681032</v>
+        <v>1.000830083879444</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9083980333390642</v>
+        <v>0.9909781362807443</v>
       </c>
       <c r="D16">
-        <v>1.05354481026009</v>
+        <v>1.005283409744854</v>
       </c>
       <c r="E16">
-        <v>0.8194801800992695</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="F16">
-        <v>0.8194801800992695</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="G16">
-        <v>1.163979061995549</v>
+        <v>1.016194835447213</v>
       </c>
       <c r="H16">
-        <v>0.9325914881892857</v>
+        <v>0.9932864214357938</v>
       </c>
       <c r="I16">
-        <v>1.054855861014439</v>
+        <v>1.00547891748267</v>
       </c>
       <c r="J16">
-        <v>1.25125818600117</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="K16">
-        <v>0.8194801800992695</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="L16">
-        <v>1.25125818600117</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="M16">
-        <v>0.9460869488008667</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="N16">
-        <v>0.8194801800992695</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="O16">
-        <v>0.9460869488008667</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="P16">
-        <v>1.098672567401018</v>
+        <v>1.009795082765263</v>
       </c>
       <c r="Q16">
-        <v>0.9998158795304781</v>
+        <v>1.000039313288348</v>
       </c>
       <c r="R16">
-        <v>1.005608438300435</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="S16">
-        <v>1.083629981687375</v>
+        <v>1.00829119175846</v>
       </c>
       <c r="T16">
-        <v>1.005608438300435</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="U16">
-        <v>1.017592531290349</v>
+        <v>1.001718863743429</v>
       </c>
       <c r="V16">
-        <v>0.9779700610521329</v>
+        <v>0.9977754669344108</v>
       </c>
       <c r="W16">
-        <v>1.016274321212467</v>
+        <v>1.001601720702517</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9240488991080517</v>
+        <v>0.9826872763545159</v>
       </c>
       <c r="D17">
-        <v>1.044108065697469</v>
+        <v>1.010123723722107</v>
       </c>
       <c r="E17">
-        <v>0.8553532240592526</v>
+        <v>0.965611473284311</v>
       </c>
       <c r="F17">
-        <v>0.8553532240592526</v>
+        <v>0.965611473284311</v>
       </c>
       <c r="G17">
-        <v>1.135020965313368</v>
+        <v>1.031058073046359</v>
       </c>
       <c r="H17">
-        <v>0.9457385453222106</v>
+        <v>0.9871566690989344</v>
       </c>
       <c r="I17">
-        <v>1.043709077191976</v>
+        <v>1.010458872553534</v>
       </c>
       <c r="J17">
-        <v>1.207507334678513</v>
+        <v>1.047586645744908</v>
       </c>
       <c r="K17">
-        <v>0.8553532240592526</v>
+        <v>0.965611473284311</v>
       </c>
       <c r="L17">
-        <v>1.207507334678513</v>
+        <v>1.047586645744908</v>
       </c>
       <c r="M17">
-        <v>0.9529113099409137</v>
+        <v>0.9899442924343865</v>
       </c>
       <c r="N17">
-        <v>0.8553532240592526</v>
+        <v>0.965611473284311</v>
       </c>
       <c r="O17">
-        <v>0.9529113099409137</v>
+        <v>0.9899442924343865</v>
       </c>
       <c r="P17">
-        <v>1.080209322309713</v>
+        <v>1.018765469089647</v>
       </c>
       <c r="Q17">
-        <v>0.9985096878191915</v>
+        <v>1.000034008078247</v>
       </c>
       <c r="R17">
-        <v>1.00525728955956</v>
+        <v>1.001047470487869</v>
       </c>
       <c r="S17">
-        <v>1.068175570105632</v>
+        <v>1.015884887300467</v>
       </c>
       <c r="T17">
-        <v>1.00525728955956</v>
+        <v>1.001047470487869</v>
       </c>
       <c r="U17">
-        <v>1.014969983594037</v>
+        <v>1.003316533796428</v>
       </c>
       <c r="V17">
-        <v>0.9830466316870803</v>
+        <v>0.9957755216940049</v>
       </c>
       <c r="W17">
-        <v>1.013549677663969</v>
+        <v>1.003078378279882</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9554484155915477</v>
+        <v>0.9745944122235028</v>
       </c>
       <c r="D18">
-        <v>1.025185139269176</v>
+        <v>1.014848787757401</v>
       </c>
       <c r="E18">
-        <v>0.9271706812365362</v>
+        <v>0.9496177459003916</v>
       </c>
       <c r="F18">
-        <v>0.9271706812365362</v>
+        <v>0.9496177459003916</v>
       </c>
       <c r="G18">
-        <v>1.076951420026445</v>
+        <v>1.045564518416457</v>
       </c>
       <c r="H18">
-        <v>0.9720663134166061</v>
+        <v>0.981175858820131</v>
       </c>
       <c r="I18">
-        <v>1.021400027400673</v>
+        <v>1.015318283444446</v>
       </c>
       <c r="J18">
-        <v>1.119753665287079</v>
+        <v>1.069830200600768</v>
       </c>
       <c r="K18">
-        <v>0.9271706812365362</v>
+        <v>0.9496177459003916</v>
       </c>
       <c r="L18">
-        <v>1.119753665287079</v>
+        <v>1.069830200600768</v>
       </c>
       <c r="M18">
-        <v>0.9666748014550139</v>
+        <v>0.9852064221608864</v>
       </c>
       <c r="N18">
-        <v>0.9271706812365362</v>
+        <v>0.9496177459003916</v>
       </c>
       <c r="O18">
-        <v>0.9666748014550139</v>
+        <v>0.9852064221608864</v>
       </c>
       <c r="P18">
-        <v>1.043214233371046</v>
+        <v>1.027518311380827</v>
       </c>
       <c r="Q18">
-        <v>0.9959299703620952</v>
+        <v>1.000027604959144</v>
       </c>
       <c r="R18">
-        <v>1.00453304932621</v>
+        <v>1.001551456220682</v>
       </c>
       <c r="S18">
-        <v>1.03720453533709</v>
+        <v>1.023295136839685</v>
       </c>
       <c r="T18">
-        <v>1.004533049326209</v>
+        <v>1.001551456220682</v>
       </c>
       <c r="U18">
-        <v>1.009696071811951</v>
+        <v>1.004875789104862</v>
       </c>
       <c r="V18">
-        <v>0.9931909936968681</v>
+        <v>0.9938241804639677</v>
       </c>
       <c r="W18">
-        <v>1.008081307960385</v>
+        <v>1.004519528665498</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9510529346045095</v>
+        <v>0.9996099187177883</v>
       </c>
       <c r="D19">
-        <v>1.02744555469072</v>
+        <v>1.000218068540531</v>
       </c>
       <c r="E19">
-        <v>0.9217084629986343</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="F19">
-        <v>0.9217084629986343</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="G19">
-        <v>1.084387576716712</v>
+        <v>1.000670609362117</v>
       </c>
       <c r="H19">
-        <v>0.9697020258145181</v>
+        <v>0.9997618937389866</v>
       </c>
       <c r="I19">
-        <v>1.022858179739395</v>
+        <v>1.000178426198716</v>
       </c>
       <c r="J19">
-        <v>1.131874979841144</v>
+        <v>1.001049475251303</v>
       </c>
       <c r="K19">
-        <v>0.9217084629986343</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="L19">
-        <v>1.131874979841144</v>
+        <v>1.001049475251303</v>
       </c>
       <c r="M19">
-        <v>0.9626283443325501</v>
+        <v>0.9996971855628348</v>
       </c>
       <c r="N19">
-        <v>0.9217084629986343</v>
+        <v>0.9993866145497862</v>
       </c>
       <c r="O19">
-        <v>0.9626283443325501</v>
+        <v>0.9996971855628348</v>
       </c>
       <c r="P19">
-        <v>1.047251662086847</v>
+        <v>1.000373330407069</v>
       </c>
       <c r="Q19">
-        <v>0.9950369495116351</v>
+        <v>0.999957627051683</v>
       </c>
       <c r="R19">
-        <v>1.005403929057443</v>
+        <v>1.000044425121308</v>
       </c>
       <c r="S19">
-        <v>1.040649626288138</v>
+        <v>1.000321576451556</v>
       </c>
       <c r="T19">
-        <v>1.005403929057443</v>
+        <v>1.000044425121308</v>
       </c>
       <c r="U19">
-        <v>1.010914335465762</v>
+        <v>1.000087835976114</v>
       </c>
       <c r="V19">
-        <v>0.9930731609723363</v>
+        <v>0.9999475916908483</v>
       </c>
       <c r="W19">
-        <v>1.008957257342273</v>
+        <v>1.000071523990258</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999646815454767</v>
+        <v>0.9989340568559617</v>
       </c>
       <c r="D20">
-        <v>1.000014958918898</v>
+        <v>1.000596808000628</v>
       </c>
       <c r="E20">
-        <v>1.000018086721112</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="F20">
-        <v>1.000018086721112</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="G20">
-        <v>1.000047686594541</v>
+        <v>1.00183374505399</v>
       </c>
       <c r="H20">
-        <v>1.000001547042827</v>
+        <v>0.9993468749156335</v>
       </c>
       <c r="I20">
-        <v>0.9999899814696643</v>
+        <v>1.000490947881454</v>
       </c>
       <c r="J20">
-        <v>1.000085630439117</v>
+        <v>1.002867553747923</v>
       </c>
       <c r="K20">
-        <v>1.000018086721112</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="L20">
-        <v>1.000085630439117</v>
+        <v>1.002867553747923</v>
       </c>
       <c r="M20">
-        <v>0.9999379111445513</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="N20">
-        <v>1.000018086721112</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="O20">
-        <v>0.9999379111445513</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="P20">
-        <v>1.000011770791834</v>
+        <v>1.00102212738162</v>
       </c>
       <c r="Q20">
-        <v>0.9999764350317246</v>
+        <v>0.9998867545079727</v>
       </c>
       <c r="R20">
-        <v>1.000013876101593</v>
+        <v>1.000119639276266</v>
       </c>
       <c r="S20">
-        <v>1.000012833500856</v>
+        <v>1.000880354254623</v>
       </c>
       <c r="T20">
-        <v>1.000013876101593</v>
+        <v>1.000119639276266</v>
       </c>
       <c r="U20">
-        <v>1.00001414680592</v>
+        <v>1.000238931457356</v>
       </c>
       <c r="V20">
-        <v>1.000014934788958</v>
+        <v>0.9998540777789963</v>
       </c>
       <c r="W20">
-        <v>1.000007560484523</v>
+        <v>1.000195168817058</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9995731993040173</v>
+        <v>0.9984549402444219</v>
       </c>
       <c r="D21">
-        <v>1.000243020245334</v>
+        <v>1.000865615761592</v>
       </c>
       <c r="E21">
-        <v>0.9992499930584626</v>
+        <v>0.9975555924952212</v>
       </c>
       <c r="F21">
-        <v>0.9992499930584626</v>
+        <v>0.9975555924952212</v>
       </c>
       <c r="G21">
-        <v>1.000748621565784</v>
+        <v>1.002657643708712</v>
       </c>
       <c r="H21">
-        <v>0.9997137932173426</v>
+        <v>0.9990534282456975</v>
       </c>
       <c r="I21">
-        <v>1.000223012288042</v>
+        <v>1.000712333322245</v>
       </c>
       <c r="J21">
-        <v>1.00116159924621</v>
+        <v>1.004154524165731</v>
       </c>
       <c r="K21">
-        <v>0.9992499930584626</v>
+        <v>0.9975555924952212</v>
       </c>
       <c r="L21">
-        <v>1.00116159924621</v>
+        <v>1.004154524165731</v>
       </c>
       <c r="M21">
-        <v>0.999706161075569</v>
+        <v>0.998807163054576</v>
       </c>
       <c r="N21">
-        <v>0.9992499930584626</v>
+        <v>0.9975555924952212</v>
       </c>
       <c r="O21">
-        <v>0.999706161075569</v>
+        <v>0.998807163054576</v>
       </c>
       <c r="P21">
-        <v>1.000433880160889</v>
+        <v>1.001480843610153</v>
       </c>
       <c r="Q21">
-        <v>0.9999745906604514</v>
+        <v>0.9998363894080839</v>
       </c>
       <c r="R21">
-        <v>1.000039251126747</v>
+        <v>1.000172426571843</v>
       </c>
       <c r="S21">
-        <v>1.000370260189037</v>
+        <v>1.001275767660633</v>
       </c>
       <c r="T21">
-        <v>1.000039251126747</v>
+        <v>1.000172426571843</v>
       </c>
       <c r="U21">
-        <v>1.000090193406394</v>
+        <v>1.00034572386928</v>
       </c>
       <c r="V21">
-        <v>0.9999221533368076</v>
+        <v>0.9997876975944682</v>
       </c>
       <c r="W21">
-        <v>1.000077425000095</v>
+        <v>1.000282655124775</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9985418132941519</v>
+        <v>0.9967222817850127</v>
       </c>
       <c r="D22">
-        <v>1.000849605078314</v>
+        <v>1.001836640348942</v>
       </c>
       <c r="E22">
-        <v>0.9971900422460284</v>
+        <v>0.9948037471501689</v>
       </c>
       <c r="F22">
-        <v>0.9971900422460284</v>
+        <v>0.9948037471501689</v>
       </c>
       <c r="G22">
-        <v>1.002597239622118</v>
+        <v>1.005640375772952</v>
       </c>
       <c r="H22">
-        <v>0.9989487580258953</v>
+        <v>0.99798807304614</v>
       </c>
       <c r="I22">
-        <v>1.000851090309475</v>
+        <v>1.00151479986152</v>
       </c>
       <c r="J22">
-        <v>1.003985140988001</v>
+        <v>1.008816656928121</v>
       </c>
       <c r="K22">
-        <v>0.9971900422460284</v>
+        <v>0.9948037471501689</v>
       </c>
       <c r="L22">
-        <v>1.003985140988001</v>
+        <v>1.008816656928121</v>
       </c>
       <c r="M22">
-        <v>0.999111128207239</v>
+        <v>0.9974746855079175</v>
       </c>
       <c r="N22">
-        <v>0.9971900422460284</v>
+        <v>0.9948037471501689</v>
       </c>
       <c r="O22">
-        <v>0.999111128207239</v>
+        <v>0.9974746855079175</v>
       </c>
       <c r="P22">
-        <v>1.00154813459762</v>
+        <v>1.003145671218019</v>
       </c>
       <c r="Q22">
-        <v>0.9999803666427762</v>
+        <v>0.99965566292843</v>
       </c>
       <c r="R22">
-        <v>1.000095437147089</v>
+        <v>1.000365029862069</v>
       </c>
       <c r="S22">
-        <v>1.001315291424518</v>
+        <v>1.002709327594994</v>
       </c>
       <c r="T22">
-        <v>1.000095437147089</v>
+        <v>1.000365029862069</v>
       </c>
       <c r="U22">
-        <v>1.000283979129895</v>
+        <v>1.000732932483787</v>
       </c>
       <c r="V22">
-        <v>0.9996651917531221</v>
+        <v>0.9995470954170639</v>
       </c>
       <c r="W22">
-        <v>1.000259352221403</v>
+        <v>1.000599657550097</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9944054472325879</v>
+      </c>
+      <c r="D23">
+        <v>1.003132385099817</v>
+      </c>
+      <c r="E23">
+        <v>0.9911646579079396</v>
+      </c>
+      <c r="F23">
+        <v>0.9911646579079396</v>
+      </c>
+      <c r="G23">
+        <v>1.00962162322051</v>
+      </c>
+      <c r="H23">
+        <v>0.9965762135780646</v>
+      </c>
+      <c r="I23">
+        <v>1.00257339279021</v>
+      </c>
+      <c r="J23">
+        <v>1.015045646425702</v>
+      </c>
+      <c r="K23">
+        <v>0.9911646579079396</v>
+      </c>
+      <c r="L23">
+        <v>1.015045646425702</v>
+      </c>
+      <c r="M23">
+        <v>0.9956738667479358</v>
+      </c>
+      <c r="N23">
+        <v>0.9911646579079396</v>
+      </c>
+      <c r="O23">
+        <v>0.9956738667479358</v>
+      </c>
+      <c r="P23">
+        <v>1.005359756586819</v>
+      </c>
+      <c r="Q23">
+        <v>0.9994031259238763</v>
+      </c>
+      <c r="R23">
+        <v>1.000628057027193</v>
+      </c>
+      <c r="S23">
+        <v>1.004617299424485</v>
+      </c>
+      <c r="T23">
+        <v>1.000628057027193</v>
+      </c>
+      <c r="U23">
+        <v>1.001254139045349</v>
+      </c>
+      <c r="V23">
+        <v>0.9992362428178669</v>
+      </c>
+      <c r="W23">
+        <v>1.001024154125346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.050866482172833</v>
+      </c>
+      <c r="D24">
+        <v>0.9695178793910392</v>
+      </c>
+      <c r="E24">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="F24">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="G24">
+        <v>0.9066378481977073</v>
+      </c>
+      <c r="H24">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="I24">
+        <v>0.9651061255617663</v>
+      </c>
+      <c r="J24">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="K24">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="L24">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="M24">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="N24">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="O24">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="P24">
+        <v>0.9412878014814032</v>
+      </c>
+      <c r="Q24">
+        <v>0.9967607509916041</v>
+      </c>
+      <c r="R24">
+        <v>0.9984508798228031</v>
+      </c>
+      <c r="S24">
+        <v>0.950697827451282</v>
+      </c>
+      <c r="T24">
+        <v>0.9984508798228031</v>
+      </c>
+      <c r="U24">
+        <v>0.9912176297148622</v>
+      </c>
+      <c r="V24">
+        <v>1.01552951107301</v>
+      </c>
+      <c r="W24">
+        <v>0.9911167374690144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.016228222497659</v>
+      </c>
+      <c r="D25">
+        <v>0.99081120536665</v>
+      </c>
+      <c r="E25">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="F25">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="G25">
+        <v>0.9736620774044245</v>
+      </c>
+      <c r="H25">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="I25">
+        <v>0.9943106471279164</v>
+      </c>
+      <c r="J25">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="K25">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="L25">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="M25">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="N25">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="O25">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="P25">
+        <v>0.987263429870335</v>
+      </c>
+      <c r="Q25">
+        <v>1.003073065280247</v>
+      </c>
+      <c r="R25">
+        <v>0.9982325332031184</v>
+      </c>
+      <c r="S25">
+        <v>0.98844602170244</v>
+      </c>
+      <c r="T25">
+        <v>0.9982325332031184</v>
+      </c>
+      <c r="U25">
+        <v>0.9963772012440013</v>
+      </c>
+      <c r="V25">
+        <v>1.001135908968938</v>
+      </c>
+      <c r="W25">
+        <v>0.9971651829433044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.034090599972796</v>
+      </c>
+      <c r="D26">
+        <v>0.9835546829516593</v>
+      </c>
+      <c r="E26">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="F26">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="G26">
+        <v>0.9505635915404078</v>
+      </c>
+      <c r="H26">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="I26">
+        <v>1.001298447372552</v>
+      </c>
+      <c r="J26">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="K26">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="L26">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="M26">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="N26">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="O26">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="P26">
+        <v>0.9830516250759653</v>
+      </c>
+      <c r="Q26">
+        <v>1.016439228361365</v>
+      </c>
+      <c r="R26">
+        <v>0.9905598393099377</v>
+      </c>
+      <c r="S26">
+        <v>0.9832193110345301</v>
+      </c>
+      <c r="T26">
+        <v>0.9905598393099376</v>
+      </c>
+      <c r="U26">
+        <v>0.9888085502203681</v>
+      </c>
+      <c r="V26">
+        <v>0.992162093731871</v>
+      </c>
+      <c r="W26">
+        <v>0.9932809677003605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001411331558807</v>
+      </c>
+      <c r="D27">
+        <v>0.9978967078631088</v>
+      </c>
+      <c r="E27">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="F27">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="G27">
+        <v>0.993052460704794</v>
+      </c>
+      <c r="H27">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="I27">
+        <v>0.9909735381015758</v>
+      </c>
+      <c r="J27">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="K27">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="L27">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="M27">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="N27">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="O27">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="P27">
+        <v>0.990925798039239</v>
+      </c>
+      <c r="Q27">
+        <v>0.9938343831888454</v>
+      </c>
+      <c r="R27">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="S27">
+        <v>0.9932494346471956</v>
+      </c>
+      <c r="T27">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="U27">
+        <v>1.001444535334468</v>
+      </c>
+      <c r="V27">
+        <v>1.006361595746831</v>
+      </c>
+      <c r="W27">
+        <v>0.9999823274681032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9083980333390642</v>
+      </c>
+      <c r="D28">
+        <v>1.05354481026009</v>
+      </c>
+      <c r="E28">
+        <v>0.8194801800992695</v>
+      </c>
+      <c r="F28">
+        <v>0.8194801800992695</v>
+      </c>
+      <c r="G28">
+        <v>1.163979061995549</v>
+      </c>
+      <c r="H28">
+        <v>0.9325914881892857</v>
+      </c>
+      <c r="I28">
+        <v>1.054855861014439</v>
+      </c>
+      <c r="J28">
+        <v>1.25125818600117</v>
+      </c>
+      <c r="K28">
+        <v>0.8194801800992695</v>
+      </c>
+      <c r="L28">
+        <v>1.25125818600117</v>
+      </c>
+      <c r="M28">
+        <v>0.9460869488008667</v>
+      </c>
+      <c r="N28">
+        <v>0.8194801800992695</v>
+      </c>
+      <c r="O28">
+        <v>0.9460869488008667</v>
+      </c>
+      <c r="P28">
+        <v>1.098672567401018</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998158795304781</v>
+      </c>
+      <c r="R28">
+        <v>1.005608438300435</v>
+      </c>
+      <c r="S28">
+        <v>1.083629981687375</v>
+      </c>
+      <c r="T28">
+        <v>1.005608438300435</v>
+      </c>
+      <c r="U28">
+        <v>1.017592531290349</v>
+      </c>
+      <c r="V28">
+        <v>0.9779700610521329</v>
+      </c>
+      <c r="W28">
+        <v>1.016274321212467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9240488991080517</v>
+      </c>
+      <c r="D29">
+        <v>1.044108065697469</v>
+      </c>
+      <c r="E29">
+        <v>0.8553532240592526</v>
+      </c>
+      <c r="F29">
+        <v>0.8553532240592526</v>
+      </c>
+      <c r="G29">
+        <v>1.135020965313368</v>
+      </c>
+      <c r="H29">
+        <v>0.9457385453222106</v>
+      </c>
+      <c r="I29">
+        <v>1.043709077191976</v>
+      </c>
+      <c r="J29">
+        <v>1.207507334678513</v>
+      </c>
+      <c r="K29">
+        <v>0.8553532240592526</v>
+      </c>
+      <c r="L29">
+        <v>1.207507334678513</v>
+      </c>
+      <c r="M29">
+        <v>0.9529113099409137</v>
+      </c>
+      <c r="N29">
+        <v>0.8553532240592526</v>
+      </c>
+      <c r="O29">
+        <v>0.9529113099409137</v>
+      </c>
+      <c r="P29">
+        <v>1.080209322309713</v>
+      </c>
+      <c r="Q29">
+        <v>0.9985096878191915</v>
+      </c>
+      <c r="R29">
+        <v>1.00525728955956</v>
+      </c>
+      <c r="S29">
+        <v>1.068175570105632</v>
+      </c>
+      <c r="T29">
+        <v>1.00525728955956</v>
+      </c>
+      <c r="U29">
+        <v>1.014969983594037</v>
+      </c>
+      <c r="V29">
+        <v>0.9830466316870803</v>
+      </c>
+      <c r="W29">
+        <v>1.013549677663969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9554484155915477</v>
+      </c>
+      <c r="D30">
+        <v>1.025185139269176</v>
+      </c>
+      <c r="E30">
+        <v>0.9271706812365362</v>
+      </c>
+      <c r="F30">
+        <v>0.9271706812365362</v>
+      </c>
+      <c r="G30">
+        <v>1.076951420026445</v>
+      </c>
+      <c r="H30">
+        <v>0.9720663134166061</v>
+      </c>
+      <c r="I30">
+        <v>1.021400027400673</v>
+      </c>
+      <c r="J30">
+        <v>1.119753665287079</v>
+      </c>
+      <c r="K30">
+        <v>0.9271706812365362</v>
+      </c>
+      <c r="L30">
+        <v>1.119753665287079</v>
+      </c>
+      <c r="M30">
+        <v>0.9666748014550139</v>
+      </c>
+      <c r="N30">
+        <v>0.9271706812365362</v>
+      </c>
+      <c r="O30">
+        <v>0.9666748014550139</v>
+      </c>
+      <c r="P30">
+        <v>1.043214233371046</v>
+      </c>
+      <c r="Q30">
+        <v>0.9959299703620952</v>
+      </c>
+      <c r="R30">
+        <v>1.00453304932621</v>
+      </c>
+      <c r="S30">
+        <v>1.03720453533709</v>
+      </c>
+      <c r="T30">
+        <v>1.004533049326209</v>
+      </c>
+      <c r="U30">
+        <v>1.009696071811951</v>
+      </c>
+      <c r="V30">
+        <v>0.9931909936968681</v>
+      </c>
+      <c r="W30">
+        <v>1.008081307960385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9510529346045095</v>
+      </c>
+      <c r="D31">
+        <v>1.02744555469072</v>
+      </c>
+      <c r="E31">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="F31">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="G31">
+        <v>1.084387576716712</v>
+      </c>
+      <c r="H31">
+        <v>0.9697020258145181</v>
+      </c>
+      <c r="I31">
+        <v>1.022858179739395</v>
+      </c>
+      <c r="J31">
+        <v>1.131874979841144</v>
+      </c>
+      <c r="K31">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="L31">
+        <v>1.131874979841144</v>
+      </c>
+      <c r="M31">
+        <v>0.9626283443325501</v>
+      </c>
+      <c r="N31">
+        <v>0.9217084629986343</v>
+      </c>
+      <c r="O31">
+        <v>0.9626283443325501</v>
+      </c>
+      <c r="P31">
+        <v>1.047251662086847</v>
+      </c>
+      <c r="Q31">
+        <v>0.9950369495116351</v>
+      </c>
+      <c r="R31">
+        <v>1.005403929057443</v>
+      </c>
+      <c r="S31">
+        <v>1.040649626288138</v>
+      </c>
+      <c r="T31">
+        <v>1.005403929057443</v>
+      </c>
+      <c r="U31">
+        <v>1.010914335465762</v>
+      </c>
+      <c r="V31">
+        <v>0.9930731609723363</v>
+      </c>
+      <c r="W31">
+        <v>1.008957257342273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8897497715068491</v>
+      </c>
+      <c r="D32">
+        <v>1.064609870958904</v>
+      </c>
+      <c r="E32">
+        <v>0.7796027846575342</v>
+      </c>
+      <c r="F32">
+        <v>0.7796027846575342</v>
+      </c>
+      <c r="G32">
+        <v>1.197966458356165</v>
+      </c>
+      <c r="H32">
+        <v>0.9178356121917809</v>
+      </c>
+      <c r="I32">
+        <v>1.06712118</v>
+      </c>
+      <c r="J32">
+        <v>1.302988969863014</v>
+      </c>
+      <c r="K32">
+        <v>0.7796027846575342</v>
+      </c>
+      <c r="L32">
+        <v>1.302988969863014</v>
+      </c>
+      <c r="M32">
+        <v>0.9366024632876709</v>
+      </c>
+      <c r="N32">
+        <v>0.7796027846575342</v>
+      </c>
+      <c r="O32">
+        <v>0.9366024632876709</v>
+      </c>
+      <c r="P32">
+        <v>1.119795716575342</v>
+      </c>
+      <c r="Q32">
+        <v>1.000606167123287</v>
+      </c>
+      <c r="R32">
+        <v>1.00639807260274</v>
+      </c>
+      <c r="S32">
+        <v>1.101400434703196</v>
+      </c>
+      <c r="T32">
+        <v>1.00639807260274</v>
+      </c>
+      <c r="U32">
+        <v>1.020951022191781</v>
+      </c>
+      <c r="V32">
+        <v>0.9726813746849314</v>
+      </c>
+      <c r="W32">
+        <v>1.01955963885274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8817830042105264</v>
+      </c>
+      <c r="D33">
+        <v>1.068931940526316</v>
+      </c>
+      <c r="E33">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="F33">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="G33">
+        <v>1.211316996842105</v>
+      </c>
+      <c r="H33">
+        <v>0.9135891294736843</v>
+      </c>
+      <c r="I33">
+        <v>1.070061050526316</v>
+      </c>
+      <c r="J33">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="K33">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="L33">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="N33">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="O33">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="P33">
+        <v>1.126836946842105</v>
+      </c>
+      <c r="Q33">
+        <v>0.9992100118421053</v>
+      </c>
+      <c r="R33">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="S33">
+        <v>1.107535278070175</v>
+      </c>
+      <c r="T33">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="U33">
+        <v>1.022914689078947</v>
+      </c>
+      <c r="V33">
+        <v>0.9721423356842106</v>
+      </c>
+      <c r="W33">
+        <v>1.021051117171053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8817830042105264</v>
+      </c>
+      <c r="D34">
+        <v>1.068931940526316</v>
+      </c>
+      <c r="E34">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="F34">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="G34">
+        <v>1.211316996842105</v>
+      </c>
+      <c r="H34">
+        <v>0.9135891294736843</v>
+      </c>
+      <c r="I34">
+        <v>1.070061050526316</v>
+      </c>
+      <c r="J34">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="K34">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="L34">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="M34">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="N34">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="O34">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="P34">
+        <v>1.126836946842105</v>
+      </c>
+      <c r="Q34">
+        <v>0.9992100118421053</v>
+      </c>
+      <c r="R34">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="S34">
+        <v>1.107535278070175</v>
+      </c>
+      <c r="T34">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="U34">
+        <v>1.022914689078947</v>
+      </c>
+      <c r="V34">
+        <v>0.9721423356842106</v>
+      </c>
+      <c r="W34">
+        <v>1.021051117171053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.822264736118542</v>
+      </c>
+      <c r="D35">
+        <v>1.099314315810659</v>
+      </c>
+      <c r="E35">
+        <v>0.720774027616488</v>
+      </c>
+      <c r="F35">
+        <v>0.720774027616488</v>
+      </c>
+      <c r="G35">
+        <v>1.305551402451985</v>
+      </c>
+      <c r="H35">
+        <v>0.8915506948274331</v>
+      </c>
+      <c r="I35">
+        <v>1.08119579551167</v>
+      </c>
+      <c r="J35">
+        <v>1.478291339462981</v>
+      </c>
+      <c r="K35">
+        <v>0.720774027616488</v>
+      </c>
+      <c r="L35">
+        <v>1.478291339462981</v>
+      </c>
+      <c r="M35">
+        <v>0.8619196677343508</v>
+      </c>
+      <c r="N35">
+        <v>0.720774027616488</v>
+      </c>
+      <c r="O35">
+        <v>0.8619196677343508</v>
+      </c>
+      <c r="P35">
+        <v>1.170105503598666</v>
+      </c>
+      <c r="Q35">
+        <v>0.9806169917725048</v>
+      </c>
+      <c r="R35">
+        <v>1.02032834493794</v>
+      </c>
+      <c r="S35">
+        <v>1.146508441002664</v>
+      </c>
+      <c r="T35">
+        <v>1.02032834493794</v>
+      </c>
+      <c r="U35">
+        <v>1.04007483765612</v>
+      </c>
+      <c r="V35">
+        <v>0.9762146756481934</v>
+      </c>
+      <c r="W35">
+        <v>1.032607747441764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999646815454767</v>
+      </c>
+      <c r="D36">
+        <v>1.000014958918898</v>
+      </c>
+      <c r="E36">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="F36">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="G36">
+        <v>1.000047686594541</v>
+      </c>
+      <c r="H36">
+        <v>1.000001547042827</v>
+      </c>
+      <c r="I36">
+        <v>0.9999899814696643</v>
+      </c>
+      <c r="J36">
+        <v>1.000085630439117</v>
+      </c>
+      <c r="K36">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="L36">
+        <v>1.000085630439117</v>
+      </c>
+      <c r="M36">
+        <v>0.9999379111445513</v>
+      </c>
+      <c r="N36">
+        <v>1.000018086721112</v>
+      </c>
+      <c r="O36">
+        <v>0.9999379111445513</v>
+      </c>
+      <c r="P36">
+        <v>1.000011770791834</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999764350317246</v>
+      </c>
+      <c r="R36">
+        <v>1.000013876101593</v>
+      </c>
+      <c r="S36">
+        <v>1.000012833500856</v>
+      </c>
+      <c r="T36">
+        <v>1.000013876101593</v>
+      </c>
+      <c r="U36">
+        <v>1.00001414680592</v>
+      </c>
+      <c r="V36">
+        <v>1.000014934788958</v>
+      </c>
+      <c r="W36">
+        <v>1.000007560484523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9995731993040173</v>
+      </c>
+      <c r="D37">
+        <v>1.000243020245334</v>
+      </c>
+      <c r="E37">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="F37">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="G37">
+        <v>1.000748621565784</v>
+      </c>
+      <c r="H37">
+        <v>0.9997137932173426</v>
+      </c>
+      <c r="I37">
+        <v>1.000223012288042</v>
+      </c>
+      <c r="J37">
+        <v>1.00116159924621</v>
+      </c>
+      <c r="K37">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="L37">
+        <v>1.00116159924621</v>
+      </c>
+      <c r="M37">
+        <v>0.999706161075569</v>
+      </c>
+      <c r="N37">
+        <v>0.9992499930584626</v>
+      </c>
+      <c r="O37">
+        <v>0.999706161075569</v>
+      </c>
+      <c r="P37">
+        <v>1.000433880160889</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999745906604514</v>
+      </c>
+      <c r="R37">
+        <v>1.000039251126747</v>
+      </c>
+      <c r="S37">
+        <v>1.000370260189037</v>
+      </c>
+      <c r="T37">
+        <v>1.000039251126747</v>
+      </c>
+      <c r="U37">
+        <v>1.000090193406394</v>
+      </c>
+      <c r="V37">
+        <v>0.9999221533368076</v>
+      </c>
+      <c r="W37">
+        <v>1.000077425000095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9985418132941519</v>
+      </c>
+      <c r="D38">
+        <v>1.000849605078314</v>
+      </c>
+      <c r="E38">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="F38">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="G38">
+        <v>1.002597239622118</v>
+      </c>
+      <c r="H38">
+        <v>0.9989487580258953</v>
+      </c>
+      <c r="I38">
+        <v>1.000851090309475</v>
+      </c>
+      <c r="J38">
+        <v>1.003985140988001</v>
+      </c>
+      <c r="K38">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="L38">
+        <v>1.003985140988001</v>
+      </c>
+      <c r="M38">
+        <v>0.999111128207239</v>
+      </c>
+      <c r="N38">
+        <v>0.9971900422460284</v>
+      </c>
+      <c r="O38">
+        <v>0.999111128207239</v>
+      </c>
+      <c r="P38">
+        <v>1.00154813459762</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999803666427762</v>
+      </c>
+      <c r="R38">
+        <v>1.000095437147089</v>
+      </c>
+      <c r="S38">
+        <v>1.001315291424518</v>
+      </c>
+      <c r="T38">
+        <v>1.000095437147089</v>
+      </c>
+      <c r="U38">
+        <v>1.000283979129895</v>
+      </c>
+      <c r="V38">
+        <v>0.9996651917531221</v>
+      </c>
+      <c r="W38">
+        <v>1.000259352221403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9966369341329036</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001973160159086</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9932450426349538</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9932450426349538</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.006044117937264</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9974839273171849</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.002058908496575</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00924537170932</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9932450426349538</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00924537170932</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9980810655714761</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9932450426349538</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9980810655714761</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.003663218640398</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000027112865281</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00019049330525</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.003099865813294</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00019049330525</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000636160018709</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9991579365419578</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000596065994845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9564383249145462</v>
+      </c>
+      <c r="D40">
+        <v>1.024712321327953</v>
+      </c>
+      <c r="E40">
+        <v>0.9276066068834522</v>
+      </c>
+      <c r="F40">
+        <v>0.9276066068834522</v>
+      </c>
+      <c r="G40">
+        <v>1.075437561236196</v>
+      </c>
+      <c r="H40">
+        <v>0.972329157665096</v>
+      </c>
+      <c r="I40">
+        <v>1.021348448190137</v>
+      </c>
+      <c r="J40">
+        <v>1.117196808532738</v>
+      </c>
+      <c r="K40">
+        <v>0.9276066068834522</v>
+      </c>
+      <c r="L40">
+        <v>1.117196808532738</v>
+      </c>
+      <c r="M40">
+        <v>0.9679673931814087</v>
+      </c>
+      <c r="N40">
+        <v>0.9276066068834522</v>
+      </c>
+      <c r="O40">
+        <v>0.9679673931814087</v>
+      </c>
+      <c r="P40">
+        <v>1.042582100857073</v>
+      </c>
+      <c r="Q40">
+        <v>0.9963398572546807</v>
+      </c>
+      <c r="R40">
+        <v>1.0042569361992</v>
+      </c>
+      <c r="S40">
+        <v>1.0366255076807</v>
+      </c>
+      <c r="T40">
+        <v>1.0042569361992</v>
+      </c>
+      <c r="U40">
+        <v>1.009370782481388</v>
+      </c>
+      <c r="V40">
+        <v>0.9930179473618006</v>
+      </c>
+      <c r="W40">
+        <v>1.007879577741441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.020201291500618</v>
+      </c>
+      <c r="D41">
+        <v>0.9879377434601766</v>
+      </c>
+      <c r="E41">
+        <v>1.042144087720476</v>
+      </c>
+      <c r="F41">
+        <v>1.042144087720476</v>
+      </c>
+      <c r="G41">
+        <v>0.9635597767106081</v>
+      </c>
+      <c r="H41">
+        <v>1.015462524405923</v>
+      </c>
+      <c r="I41">
+        <v>0.9870359780334731</v>
+      </c>
+      <c r="J41">
+        <v>0.9447701578596019</v>
+      </c>
+      <c r="K41">
+        <v>1.042144087720476</v>
+      </c>
+      <c r="L41">
+        <v>0.9447701578596019</v>
+      </c>
+      <c r="M41">
+        <v>1.010838834390596</v>
+      </c>
+      <c r="N41">
+        <v>1.042144087720476</v>
+      </c>
+      <c r="O41">
+        <v>1.010838834390596</v>
+      </c>
+      <c r="P41">
+        <v>0.977804496125099</v>
+      </c>
+      <c r="Q41">
+        <v>0.9993882889253863</v>
+      </c>
+      <c r="R41">
+        <v>0.9992510266568914</v>
+      </c>
+      <c r="S41">
+        <v>0.9811822452367917</v>
+      </c>
+      <c r="T41">
+        <v>0.9992510266568914</v>
+      </c>
+      <c r="U41">
+        <v>0.9964227058577126</v>
+      </c>
+      <c r="V41">
+        <v>1.005566982230265</v>
+      </c>
+      <c r="W41">
+        <v>0.996493799260184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9371394232807592</v>
+      </c>
+      <c r="D42">
+        <v>1.036454228405836</v>
+      </c>
+      <c r="E42">
+        <v>0.8841489741261281</v>
+      </c>
+      <c r="F42">
+        <v>0.8841489741261281</v>
+      </c>
+      <c r="G42">
+        <v>1.110801148811969</v>
+      </c>
+      <c r="H42">
+        <v>0.9565686034737479</v>
+      </c>
+      <c r="I42">
+        <v>1.034873527612031</v>
+      </c>
+      <c r="J42">
+        <v>1.170316226869612</v>
+      </c>
+      <c r="K42">
+        <v>0.8841489741261281</v>
+      </c>
+      <c r="L42">
+        <v>1.170316226869612</v>
+      </c>
+      <c r="M42">
+        <v>0.9591128861383469</v>
+      </c>
+      <c r="N42">
+        <v>0.8841489741261281</v>
+      </c>
+      <c r="O42">
+        <v>0.9591128861383469</v>
+      </c>
+      <c r="P42">
+        <v>1.064714556503979</v>
+      </c>
+      <c r="Q42">
+        <v>0.9977835572720917</v>
+      </c>
+      <c r="R42">
+        <v>1.004526029044696</v>
+      </c>
+      <c r="S42">
+        <v>1.055294447137932</v>
+      </c>
+      <c r="T42">
+        <v>1.004526029044696</v>
+      </c>
+      <c r="U42">
+        <v>1.012508078884981</v>
+      </c>
+      <c r="V42">
+        <v>0.9868362579332102</v>
+      </c>
+      <c r="W42">
+        <v>1.011176877339804</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9906757081722694</v>
+        <v>0.9989340568559617</v>
       </c>
       <c r="D3">
-        <v>1.012847004818623</v>
+        <v>1.000596808000628</v>
       </c>
       <c r="E3">
-        <v>0.9973088036725599</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="F3">
-        <v>0.9906757081722694</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="G3">
-        <v>1.002734008385656</v>
+        <v>1.00183374505399</v>
       </c>
       <c r="H3">
-        <v>0.9953289224283863</v>
+        <v>0.9993468749156335</v>
       </c>
       <c r="I3">
-        <v>0.9906757081722694</v>
+        <v>1.000490947881454</v>
       </c>
       <c r="J3">
-        <v>1.012847004818623</v>
+        <v>1.002867553747923</v>
       </c>
       <c r="K3">
-        <v>1.002838089013154</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="L3">
-        <v>0.9965197751834127</v>
+        <v>1.002867553747923</v>
       </c>
       <c r="M3">
-        <v>1.008388359361495</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="N3">
-        <v>0.9906757081722694</v>
+        <v>0.9983146630655566</v>
       </c>
       <c r="O3">
-        <v>0.9973088036725599</v>
+        <v>0.9991767010153179</v>
       </c>
       <c r="P3">
-        <v>1.005077904245591</v>
+        <v>1.00102212738162</v>
       </c>
       <c r="Q3">
-        <v>1.000021406029108</v>
+        <v>0.9998867545079727</v>
       </c>
       <c r="R3">
-        <v>1.000277172221151</v>
+        <v>1.000119639276266</v>
       </c>
       <c r="S3">
-        <v>1.004296605625613</v>
+        <v>1.000880354254623</v>
       </c>
       <c r="T3">
-        <v>1.000277172221151</v>
+        <v>1.000119639276266</v>
       </c>
       <c r="U3">
-        <v>1.000891381262277</v>
+        <v>1.000238931457356</v>
       </c>
       <c r="V3">
-        <v>0.9988482466442756</v>
+        <v>0.9998540777789963</v>
       </c>
       <c r="W3">
-        <v>1.000830083879444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000195168817058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9820018796983366</v>
+        <v>0.9564383249145462</v>
       </c>
       <c r="D4">
-        <v>1.024794948698685</v>
+        <v>1.024712321327953</v>
       </c>
       <c r="E4">
-        <v>0.994795216831841</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="F4">
-        <v>0.9820018796983366</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="G4">
-        <v>1.005283409744854</v>
+        <v>1.075437561236196</v>
       </c>
       <c r="H4">
-        <v>0.9909781362807443</v>
+        <v>0.972329157665096</v>
       </c>
       <c r="I4">
-        <v>0.9820018796983366</v>
+        <v>1.021348448190137</v>
       </c>
       <c r="J4">
-        <v>1.024794948698685</v>
+        <v>1.117196808532738</v>
       </c>
       <c r="K4">
-        <v>1.00547891748267</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="L4">
-        <v>0.9932864214357938</v>
+        <v>1.117196808532738</v>
       </c>
       <c r="M4">
-        <v>1.016194835447213</v>
+        <v>0.9679673931814087</v>
       </c>
       <c r="N4">
-        <v>0.9820018796983366</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="O4">
-        <v>0.994795216831841</v>
+        <v>0.9679673931814087</v>
       </c>
       <c r="P4">
-        <v>1.009795082765263</v>
+        <v>1.042582100857073</v>
       </c>
       <c r="Q4">
-        <v>1.000039313288348</v>
+        <v>0.9963398572546807</v>
       </c>
       <c r="R4">
-        <v>1.000530681742954</v>
+        <v>1.0042569361992</v>
       </c>
       <c r="S4">
-        <v>1.00829119175846</v>
+        <v>1.0366255076807</v>
       </c>
       <c r="T4">
-        <v>1.000530681742954</v>
+        <v>1.0042569361992</v>
       </c>
       <c r="U4">
-        <v>1.001718863743429</v>
+        <v>1.009370782481388</v>
       </c>
       <c r="V4">
-        <v>0.9977754669344108</v>
+        <v>0.9930179473618006</v>
       </c>
       <c r="W4">
-        <v>1.001601720702517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.007879577741441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.965611473284311</v>
+        <v>0.946760600172917</v>
       </c>
       <c r="D5">
-        <v>1.047586645744908</v>
+        <v>1.030119338537464</v>
       </c>
       <c r="E5">
-        <v>0.9899442924343865</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="F5">
-        <v>0.965611473284311</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="G5">
-        <v>1.010123723722107</v>
+        <v>1.092147980259361</v>
       </c>
       <c r="H5">
-        <v>0.9826872763545159</v>
+        <v>0.9663133948054755</v>
       </c>
       <c r="I5">
-        <v>0.965611473284311</v>
+        <v>1.025860456585015</v>
       </c>
       <c r="J5">
-        <v>1.047586645744908</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="K5">
-        <v>1.010458872553534</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="L5">
-        <v>0.9871566690989344</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="M5">
-        <v>1.031058073046359</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="N5">
-        <v>0.965611473284311</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="O5">
-        <v>0.9899442924343865</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="P5">
-        <v>1.018765469089647</v>
+        <v>1.051974135288185</v>
       </c>
       <c r="Q5">
-        <v>1.000034008078247</v>
+        <v>0.9953530900612384</v>
       </c>
       <c r="R5">
-        <v>1.001047470487868</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="S5">
-        <v>1.015884887300467</v>
+        <v>1.044689203037944</v>
       </c>
       <c r="T5">
-        <v>1.001047470487868</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="U5">
-        <v>1.003316533796428</v>
+        <v>1.011548972228026</v>
       </c>
       <c r="V5">
-        <v>0.9957755216940049</v>
+        <v>0.9916648337420746</v>
       </c>
       <c r="W5">
-        <v>1.003078378279882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.009659790091859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9496177459003916</v>
+        <v>0.822264736118542</v>
       </c>
       <c r="D6">
-        <v>1.069830200600768</v>
+        <v>1.099314315810659</v>
       </c>
       <c r="E6">
-        <v>0.9852064221608864</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="F6">
-        <v>0.9496177459003916</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="G6">
-        <v>1.014848787757401</v>
+        <v>1.305551402451985</v>
       </c>
       <c r="H6">
-        <v>0.9745944122235028</v>
+        <v>0.8915506948274331</v>
       </c>
       <c r="I6">
-        <v>0.9496177459003916</v>
+        <v>1.08119579551167</v>
       </c>
       <c r="J6">
-        <v>1.069830200600768</v>
+        <v>1.478291339462981</v>
       </c>
       <c r="K6">
-        <v>1.015318283444446</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="L6">
-        <v>0.981175858820131</v>
+        <v>1.478291339462981</v>
       </c>
       <c r="M6">
-        <v>1.045564518416457</v>
+        <v>0.8619196677343508</v>
       </c>
       <c r="N6">
-        <v>0.9496177459003916</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="O6">
-        <v>0.9852064221608864</v>
+        <v>0.8619196677343508</v>
       </c>
       <c r="P6">
-        <v>1.027518311380827</v>
+        <v>1.170105503598666</v>
       </c>
       <c r="Q6">
-        <v>1.000027604959144</v>
+        <v>0.9806169917725048</v>
       </c>
       <c r="R6">
-        <v>1.001551456220682</v>
+        <v>1.02032834493794</v>
       </c>
       <c r="S6">
-        <v>1.023295136839685</v>
+        <v>1.146508441002664</v>
       </c>
       <c r="T6">
-        <v>1.001551456220682</v>
+        <v>1.02032834493794</v>
       </c>
       <c r="U6">
-        <v>1.004875789104862</v>
+        <v>1.04007483765612</v>
       </c>
       <c r="V6">
-        <v>0.9938241804639677</v>
+        <v>0.9762146756481934</v>
       </c>
       <c r="W6">
-        <v>1.004519528665498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.032607747441764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993866145497864</v>
+        <v>0.9946094029539509</v>
       </c>
       <c r="D7">
-        <v>1.001049475251303</v>
+        <v>1.00315743699402</v>
       </c>
       <c r="E7">
-        <v>0.999697185562835</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="F7">
-        <v>0.9993866145497864</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="G7">
-        <v>1.000218068540531</v>
+        <v>1.009660685136929</v>
       </c>
       <c r="H7">
-        <v>0.9996099187177883</v>
+        <v>0.9960122198371558</v>
       </c>
       <c r="I7">
-        <v>0.9993866145497864</v>
+        <v>1.003254928708039</v>
       </c>
       <c r="J7">
-        <v>1.001049475251303</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="K7">
-        <v>1.000178426198716</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="L7">
-        <v>0.9997618937389865</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="M7">
-        <v>1.000670609362116</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="N7">
-        <v>0.9993866145497864</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="O7">
-        <v>0.999697185562835</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="P7">
-        <v>1.000373330407069</v>
+        <v>1.005824469761057</v>
       </c>
       <c r="Q7">
-        <v>0.999957627051683</v>
+        <v>1.000009328654498</v>
       </c>
       <c r="R7">
-        <v>1.000044425121308</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="S7">
-        <v>1.000321576451557</v>
+        <v>1.004935458838712</v>
       </c>
       <c r="T7">
-        <v>1.000044425121308</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="U7">
-        <v>1.000087835976114</v>
+        <v>1.001027378940787</v>
       </c>
       <c r="V7">
-        <v>0.9999475916908486</v>
+        <v>0.9986825310020324</v>
       </c>
       <c r="W7">
-        <v>1.000071523990258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000955844049903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9983146630655566</v>
+        <v>0.9995731993040173</v>
       </c>
       <c r="D8">
-        <v>1.002867553747923</v>
+        <v>1.000243020245334</v>
       </c>
       <c r="E8">
-        <v>0.999176701015318</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="F8">
-        <v>0.9983146630655566</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="G8">
-        <v>1.000596808000628</v>
+        <v>1.000748621565784</v>
       </c>
       <c r="H8">
-        <v>0.9989340568559617</v>
+        <v>0.9997137932173426</v>
       </c>
       <c r="I8">
-        <v>0.9983146630655566</v>
+        <v>1.000223012288042</v>
       </c>
       <c r="J8">
-        <v>1.002867553747923</v>
+        <v>1.00116159924621</v>
       </c>
       <c r="K8">
-        <v>1.000490947881454</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="L8">
-        <v>0.9993468749156335</v>
+        <v>1.00116159924621</v>
       </c>
       <c r="M8">
-        <v>1.00183374505399</v>
+        <v>0.999706161075569</v>
       </c>
       <c r="N8">
-        <v>0.9983146630655566</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="O8">
-        <v>0.999176701015318</v>
+        <v>0.999706161075569</v>
       </c>
       <c r="P8">
-        <v>1.00102212738162</v>
+        <v>1.000433880160889</v>
       </c>
       <c r="Q8">
-        <v>0.9998867545079728</v>
+        <v>0.9999745906604514</v>
       </c>
       <c r="R8">
-        <v>1.000119639276266</v>
+        <v>1.000039251126747</v>
       </c>
       <c r="S8">
-        <v>1.000880354254623</v>
+        <v>1.000370260189037</v>
       </c>
       <c r="T8">
-        <v>1.000119639276266</v>
+        <v>1.000039251126747</v>
       </c>
       <c r="U8">
-        <v>1.000238931457356</v>
+        <v>1.000090193406394</v>
       </c>
       <c r="V8">
-        <v>0.9998540777789964</v>
+        <v>0.9999221533368076</v>
       </c>
       <c r="W8">
-        <v>1.000195168817058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000077425000095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9975555924952212</v>
+        <v>0.9909781362807443</v>
       </c>
       <c r="D9">
-        <v>1.004154524165731</v>
+        <v>1.005283409744854</v>
       </c>
       <c r="E9">
-        <v>0.998807163054576</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="F9">
-        <v>0.9975555924952212</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="G9">
-        <v>1.000865615761592</v>
+        <v>1.016194835447213</v>
       </c>
       <c r="H9">
-        <v>0.9984549402444222</v>
+        <v>0.9932864214357938</v>
       </c>
       <c r="I9">
-        <v>0.9975555924952212</v>
+        <v>1.00547891748267</v>
       </c>
       <c r="J9">
-        <v>1.004154524165731</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="K9">
-        <v>1.000712333322245</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="L9">
-        <v>0.9990534282456975</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="M9">
-        <v>1.002657643708712</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="N9">
-        <v>0.9975555924952212</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="O9">
-        <v>0.998807163054576</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="P9">
-        <v>1.001480843610153</v>
+        <v>1.009795082765263</v>
       </c>
       <c r="Q9">
-        <v>0.9998363894080839</v>
+        <v>1.000039313288348</v>
       </c>
       <c r="R9">
-        <v>1.000172426571843</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="S9">
-        <v>1.001275767660633</v>
+        <v>1.00829119175846</v>
       </c>
       <c r="T9">
-        <v>1.000172426571843</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="U9">
-        <v>1.00034572386928</v>
+        <v>1.001718863743429</v>
       </c>
       <c r="V9">
-        <v>0.9997876975944682</v>
+        <v>0.9977754669344108</v>
       </c>
       <c r="W9">
-        <v>1.000282655124775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.001601720702517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9948037471501689</v>
+        <v>0.8195408192194931</v>
       </c>
       <c r="D10">
-        <v>1.008816656928121</v>
+        <v>1.100746016214673</v>
       </c>
       <c r="E10">
-        <v>0.9974746855079175</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="F10">
-        <v>0.9948037471501689</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="G10">
-        <v>1.001836640348942</v>
+        <v>1.310195015660286</v>
       </c>
       <c r="H10">
-        <v>0.9967222817850127</v>
+        <v>0.8900104641309623</v>
       </c>
       <c r="I10">
-        <v>0.9948037471501689</v>
+        <v>1.082206914024886</v>
       </c>
       <c r="J10">
-        <v>1.008816656928121</v>
+        <v>1.485783611530582</v>
       </c>
       <c r="K10">
-        <v>1.00151479986152</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="L10">
-        <v>0.9979880730461402</v>
+        <v>1.485783611530582</v>
       </c>
       <c r="M10">
-        <v>1.005640375772952</v>
+        <v>0.859542994276123</v>
       </c>
       <c r="N10">
-        <v>0.9948037471501689</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="O10">
-        <v>0.9974746855079175</v>
+        <v>0.859542994276123</v>
       </c>
       <c r="P10">
-        <v>1.003145671218019</v>
+        <v>1.172663302903352</v>
       </c>
       <c r="Q10">
-        <v>0.99965566292843</v>
+        <v>0.9801445052453982</v>
       </c>
       <c r="R10">
-        <v>1.000365029862069</v>
+        <v>1.020808513439831</v>
       </c>
       <c r="S10">
-        <v>1.002709327594994</v>
+        <v>1.148690874007126</v>
       </c>
       <c r="T10">
-        <v>1.000365029862069</v>
+        <v>1.020808513439831</v>
       </c>
       <c r="U10">
-        <v>1.000732932483787</v>
+        <v>1.040792889133541</v>
       </c>
       <c r="V10">
-        <v>0.9995470954170639</v>
+        <v>0.9760540982093906</v>
       </c>
       <c r="W10">
-        <v>1.000599657550097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.033140596196224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9911646579079396</v>
+        <v>0.9717148276990828</v>
       </c>
       <c r="D11">
-        <v>1.015045646425702</v>
+        <v>1.015459622188178</v>
       </c>
       <c r="E11">
-        <v>0.9956738667479358</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="F11">
-        <v>0.9911646579079396</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="G11">
-        <v>1.003132385099817</v>
+        <v>1.04740416401096</v>
       </c>
       <c r="H11">
-        <v>0.9944054472325879</v>
+        <v>0.9848375610440309</v>
       </c>
       <c r="I11">
-        <v>0.9911646579079396</v>
+        <v>1.010676411670092</v>
       </c>
       <c r="J11">
-        <v>1.015045646425702</v>
+        <v>1.074977480099742</v>
       </c>
       <c r="K11">
-        <v>1.00257339279021</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="L11">
-        <v>0.9965762135780646</v>
+        <v>1.074977480099742</v>
       </c>
       <c r="M11">
-        <v>1.00962162322051</v>
+        <v>0.9749852605135821</v>
       </c>
       <c r="N11">
-        <v>0.9911646579079396</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="O11">
-        <v>0.9956738667479358</v>
+        <v>0.9749852605135821</v>
       </c>
       <c r="P11">
-        <v>1.005359756586819</v>
+        <v>1.024981370306662</v>
       </c>
       <c r="Q11">
-        <v>0.9994031259238763</v>
+        <v>0.9952224413508799</v>
       </c>
       <c r="R11">
-        <v>1.000628057027193</v>
+        <v>1.003970742550993</v>
       </c>
       <c r="S11">
-        <v>1.004617299424485</v>
+        <v>1.021807454267167</v>
       </c>
       <c r="T11">
-        <v>1.000628057027193</v>
+        <v>1.003970742550993</v>
       </c>
       <c r="U11">
-        <v>1.001254139045349</v>
+        <v>1.006842962460289</v>
       </c>
       <c r="V11">
-        <v>0.9992362428178669</v>
+        <v>0.9978642673761617</v>
       </c>
       <c r="W11">
-        <v>1.001024154125346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.005250601783165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.112777036505603</v>
+        <v>0.9455345901578988</v>
       </c>
       <c r="D12">
-        <v>0.8585719803706373</v>
+        <v>1.030443909547371</v>
       </c>
       <c r="E12">
-        <v>1.024003622592169</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="F12">
-        <v>1.112777036505603</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="G12">
-        <v>0.9695178793910392</v>
+        <v>1.093708099894731</v>
       </c>
       <c r="H12">
-        <v>1.050866482172833</v>
+        <v>0.9666464352631612</v>
       </c>
       <c r="I12">
-        <v>1.112777036505603</v>
+        <v>1.024996017957895</v>
       </c>
       <c r="J12">
-        <v>0.8585719803706373</v>
+        <v>1.146665653073684</v>
       </c>
       <c r="K12">
-        <v>0.9651061255617663</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="L12">
-        <v>1.041452924960361</v>
+        <v>1.146665653073684</v>
       </c>
       <c r="M12">
-        <v>0.9066378481977073</v>
+        <v>0.9578490455578901</v>
       </c>
       <c r="N12">
-        <v>1.112777036505603</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="O12">
-        <v>1.024003622592169</v>
+        <v>0.9578490455578901</v>
       </c>
       <c r="P12">
-        <v>0.9412878014814031</v>
+        <v>1.052257349315787</v>
       </c>
       <c r="Q12">
-        <v>0.9967607509916041</v>
+        <v>0.9941464775526305</v>
       </c>
       <c r="R12">
-        <v>0.998450879822803</v>
+        <v>1.00620498959298</v>
       </c>
       <c r="S12">
-        <v>0.9506978274512817</v>
+        <v>1.044986202726315</v>
       </c>
       <c r="T12">
-        <v>0.998450879822803</v>
+        <v>1.00620498959298</v>
       </c>
       <c r="U12">
-        <v>0.991217629714862</v>
+        <v>1.012264719581578</v>
       </c>
       <c r="V12">
-        <v>1.01552951107301</v>
+        <v>0.9926318296947354</v>
       </c>
       <c r="W12">
-        <v>0.9911167374690144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.009993002699999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.020170739868685</v>
+        <v>1.034486088911355</v>
       </c>
       <c r="D13">
-        <v>0.9591919345468271</v>
+        <v>0.9800112425909329</v>
       </c>
       <c r="E13">
-        <v>1.015334925193843</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="F13">
-        <v>1.020170739868685</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="G13">
-        <v>0.99081120536665</v>
+        <v>0.9400294114808918</v>
       </c>
       <c r="H13">
-        <v>1.016228222497659</v>
+        <v>1.02257827763927</v>
       </c>
       <c r="I13">
-        <v>1.020170739868685</v>
+        <v>0.9819197402454248</v>
       </c>
       <c r="J13">
-        <v>0.9591919345468271</v>
+        <v>0.9078750939374961</v>
       </c>
       <c r="K13">
-        <v>0.9943106471279164</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="L13">
-        <v>1.00761171154043</v>
+        <v>0.9078750939374961</v>
       </c>
       <c r="M13">
-        <v>0.9736620774044245</v>
+        <v>1.024009274926484</v>
       </c>
       <c r="N13">
-        <v>1.020170739868685</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="O13">
-        <v>1.015334925193843</v>
+        <v>1.024009274926484</v>
       </c>
       <c r="P13">
-        <v>0.9872634298703351</v>
+        <v>0.9659421844319902</v>
       </c>
       <c r="Q13">
-        <v>1.003073065280247</v>
+        <v>1.002010258758709</v>
       </c>
       <c r="R13">
-        <v>0.9982325332031184</v>
+        <v>0.9974285156101547</v>
       </c>
       <c r="S13">
-        <v>0.9884460217024401</v>
+        <v>0.9706318704849711</v>
       </c>
       <c r="T13">
-        <v>0.9982325332031184</v>
+        <v>0.9974285156101548</v>
       </c>
       <c r="U13">
-        <v>0.9963772012440013</v>
+        <v>0.9930741973553493</v>
       </c>
       <c r="V13">
-        <v>1.001135908968938</v>
+        <v>1.006539593477576</v>
       </c>
       <c r="W13">
-        <v>0.9971651829433044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9939137884622923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.005576267777883</v>
+        <v>0.687925</v>
       </c>
       <c r="D14">
-        <v>0.9167794763808607</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="E14">
-        <v>1.04932377377107</v>
+        <v>0.5123396</v>
       </c>
       <c r="F14">
-        <v>1.005576267777883</v>
+        <v>0.5123396</v>
       </c>
       <c r="G14">
-        <v>0.9835546829516593</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="H14">
-        <v>1.034090599972796</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="I14">
-        <v>1.005576267777883</v>
+        <v>1.141597899999999</v>
       </c>
       <c r="J14">
-        <v>0.9167794763808607</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="K14">
-        <v>1.001298447372552</v>
+        <v>0.5123396</v>
       </c>
       <c r="L14">
-        <v>1.005060901835656</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="M14">
-        <v>0.9505635915404078</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="N14">
-        <v>1.005576267777883</v>
+        <v>0.5123396</v>
       </c>
       <c r="O14">
-        <v>1.04932377377107</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="P14">
-        <v>0.9830516250759653</v>
+        <v>1.298173550000001</v>
       </c>
       <c r="Q14">
-        <v>1.016439228361365</v>
+        <v>0.9652369000000005</v>
       </c>
       <c r="R14">
-        <v>0.9905598393099377</v>
+        <v>1.0362289</v>
       </c>
       <c r="S14">
-        <v>0.9832193110345301</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T14">
-        <v>0.9905598393099376</v>
+        <v>1.0362289</v>
       </c>
       <c r="U14">
-        <v>0.9888085502203681</v>
+        <v>1.070697250000001</v>
       </c>
       <c r="V14">
-        <v>0.992162093731871</v>
+        <v>0.9590257200000005</v>
       </c>
       <c r="W14">
-        <v>0.9932809677003605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.05734375625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.026029837396284</v>
+        <v>0.687925</v>
       </c>
       <c r="D15">
-        <v>0.9920795375638962</v>
+        <v>1.1741023</v>
       </c>
       <c r="E15">
-        <v>0.9897720585145821</v>
+        <v>0.5123396</v>
       </c>
       <c r="F15">
-        <v>1.026029837396284</v>
+        <v>0.5123396</v>
       </c>
       <c r="G15">
-        <v>0.9978967078631088</v>
+        <v>1.5361801</v>
       </c>
       <c r="H15">
-        <v>1.001411331558807</v>
+        <v>0.81025805</v>
       </c>
       <c r="I15">
-        <v>1.026029837396284</v>
+        <v>1.1415979</v>
       </c>
       <c r="J15">
-        <v>0.9920795375638962</v>
+        <v>1.8399756</v>
       </c>
       <c r="K15">
-        <v>0.990973538101576</v>
+        <v>0.5123396</v>
       </c>
       <c r="L15">
-        <v>1.008643148041779</v>
+        <v>1.8399756</v>
       </c>
       <c r="M15">
-        <v>0.993052460704794</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N15">
-        <v>1.026029837396284</v>
+        <v>0.5123396</v>
       </c>
       <c r="O15">
-        <v>0.9897720585145821</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P15">
-        <v>0.9909257980392392</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q15">
-        <v>0.9938343831888454</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R15">
-        <v>1.002627144491587</v>
+        <v>1.0362289</v>
       </c>
       <c r="S15">
-        <v>0.9932494346471957</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T15">
-        <v>1.002627144491587</v>
+        <v>1.0362289</v>
       </c>
       <c r="U15">
-        <v>1.001444535334468</v>
+        <v>1.07069725</v>
       </c>
       <c r="V15">
-        <v>1.006361595746831</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W15">
-        <v>0.9999823274681032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.05734375625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000018086721112</v>
+        <v>0.687925</v>
       </c>
       <c r="D16">
-        <v>1.000085630439117</v>
+        <v>1.1741023</v>
       </c>
       <c r="E16">
-        <v>0.9999379111445511</v>
+        <v>0.5123396</v>
       </c>
       <c r="F16">
-        <v>1.000018086721112</v>
+        <v>0.5123396</v>
       </c>
       <c r="G16">
-        <v>1.000014958918898</v>
+        <v>1.5361801</v>
       </c>
       <c r="H16">
-        <v>0.9999646815454767</v>
+        <v>0.81025805</v>
       </c>
       <c r="I16">
-        <v>1.000018086721112</v>
+        <v>1.1415979</v>
       </c>
       <c r="J16">
-        <v>1.000085630439117</v>
+        <v>1.8399756</v>
       </c>
       <c r="K16">
-        <v>0.9999899814696643</v>
+        <v>0.5123396</v>
       </c>
       <c r="L16">
-        <v>1.000001547042827</v>
+        <v>1.8399756</v>
       </c>
       <c r="M16">
-        <v>1.000047686594542</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N16">
-        <v>1.000018086721112</v>
+        <v>0.5123396</v>
       </c>
       <c r="O16">
-        <v>0.9999379111445511</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P16">
-        <v>1.000011770791834</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q16">
-        <v>0.9999764350317246</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R16">
-        <v>1.000013876101593</v>
+        <v>1.0362289</v>
       </c>
       <c r="S16">
-        <v>1.000012833500855</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T16">
-        <v>1.000013876101593</v>
+        <v>1.0362289</v>
       </c>
       <c r="U16">
-        <v>1.000014146805919</v>
+        <v>1.07069725</v>
       </c>
       <c r="V16">
-        <v>1.000014934788958</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W16">
-        <v>1.000007560484523</v>
+        <v>1.05734375625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9992499930584626</v>
+        <v>0.99486683</v>
       </c>
       <c r="D17">
-        <v>1.001161599246209</v>
+        <v>1.0075826</v>
       </c>
       <c r="E17">
-        <v>0.999706161075569</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="F17">
-        <v>0.9992499930584626</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="G17">
-        <v>1.000243020245334</v>
+        <v>1.0218135</v>
       </c>
       <c r="H17">
-        <v>0.9995731993040173</v>
+        <v>0.9738656</v>
       </c>
       <c r="I17">
-        <v>0.9992499930584626</v>
+        <v>1.0283312</v>
       </c>
       <c r="J17">
-        <v>1.001161599246209</v>
+        <v>1.0233084</v>
       </c>
       <c r="K17">
-        <v>1.000223012288042</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="L17">
-        <v>0.9997137932173426</v>
+        <v>1.0233084</v>
       </c>
       <c r="M17">
-        <v>1.000748621565784</v>
+        <v>1.0304728</v>
       </c>
       <c r="N17">
-        <v>0.9992499930584626</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="O17">
-        <v>0.999706161075569</v>
+        <v>1.0304728</v>
       </c>
       <c r="P17">
-        <v>1.000433880160889</v>
+        <v>1.0268906</v>
       </c>
       <c r="Q17">
-        <v>0.9999745906604514</v>
+        <v>1.0190277</v>
       </c>
       <c r="R17">
-        <v>1.000039251126747</v>
+        <v>0.9908611866666668</v>
       </c>
       <c r="S17">
-        <v>1.000370260189037</v>
+        <v>1.0204546</v>
       </c>
       <c r="T17">
-        <v>1.000039251126747</v>
+        <v>0.9908611866666668</v>
       </c>
       <c r="U17">
-        <v>1.000090193406394</v>
+        <v>0.9950415400000001</v>
       </c>
       <c r="V17">
-        <v>0.9999221533368076</v>
+        <v>0.9797937040000001</v>
       </c>
       <c r="W17">
-        <v>1.000077425000095</v>
+        <v>0.99988041125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9971900422460284</v>
+        <v>0.8897497715068491</v>
       </c>
       <c r="D18">
-        <v>1.003985140988001</v>
+        <v>1.064609870958904</v>
       </c>
       <c r="E18">
-        <v>0.999111128207239</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="F18">
-        <v>0.9971900422460284</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="G18">
-        <v>1.000849605078313</v>
+        <v>1.197966458356165</v>
       </c>
       <c r="H18">
-        <v>0.9985418132941517</v>
+        <v>0.9178356121917809</v>
       </c>
       <c r="I18">
-        <v>0.9971900422460284</v>
+        <v>1.06712118</v>
       </c>
       <c r="J18">
-        <v>1.003985140988001</v>
+        <v>1.302988969863014</v>
       </c>
       <c r="K18">
-        <v>1.000851090309475</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="L18">
-        <v>0.9989487580258953</v>
+        <v>1.302988969863014</v>
       </c>
       <c r="M18">
-        <v>1.002597239622118</v>
+        <v>0.9366024632876709</v>
       </c>
       <c r="N18">
-        <v>0.9971900422460284</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="O18">
-        <v>0.999111128207239</v>
+        <v>0.9366024632876709</v>
       </c>
       <c r="P18">
-        <v>1.00154813459762</v>
+        <v>1.119795716575342</v>
       </c>
       <c r="Q18">
-        <v>0.9999803666427762</v>
+        <v>1.000606167123287</v>
       </c>
       <c r="R18">
-        <v>1.000095437147089</v>
+        <v>1.00639807260274</v>
       </c>
       <c r="S18">
-        <v>1.001315291424518</v>
+        <v>1.101400434703196</v>
       </c>
       <c r="T18">
-        <v>1.000095437147089</v>
+        <v>1.00639807260274</v>
       </c>
       <c r="U18">
-        <v>1.000283979129895</v>
+        <v>1.020951022191781</v>
       </c>
       <c r="V18">
-        <v>0.9996651917531221</v>
+        <v>0.9726813746849314</v>
       </c>
       <c r="W18">
-        <v>1.000259352221403</v>
+        <v>1.01955963885274</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9932450426349538</v>
+        <v>0.8817830042105264</v>
       </c>
       <c r="D19">
-        <v>1.00924537170932</v>
+        <v>1.068931940526316</v>
       </c>
       <c r="E19">
-        <v>0.9980810655714761</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="F19">
-        <v>0.9932450426349538</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="G19">
-        <v>1.001973160159086</v>
+        <v>1.211316996842105</v>
       </c>
       <c r="H19">
-        <v>0.9966369341329039</v>
+        <v>0.9135891294736843</v>
       </c>
       <c r="I19">
-        <v>0.9932450426349538</v>
+        <v>1.070061050526316</v>
       </c>
       <c r="J19">
-        <v>1.00924537170932</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="K19">
-        <v>1.002058908496575</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="L19">
-        <v>0.9974839273171853</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="M19">
-        <v>1.006044117937264</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="N19">
-        <v>0.9932450426349538</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="O19">
-        <v>0.9980810655714761</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="P19">
-        <v>1.003663218640398</v>
+        <v>1.126836946842105</v>
       </c>
       <c r="Q19">
-        <v>1.000027112865281</v>
+        <v>0.9992100118421053</v>
       </c>
       <c r="R19">
-        <v>1.00019049330525</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="S19">
-        <v>1.003099865813294</v>
+        <v>1.107535278070175</v>
       </c>
       <c r="T19">
-        <v>1.00019049330525</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="U19">
-        <v>1.000636160018709</v>
+        <v>1.022914689078947</v>
       </c>
       <c r="V19">
-        <v>0.9991579365419578</v>
+        <v>0.9721423356842106</v>
       </c>
       <c r="W19">
-        <v>1.000596065994845</v>
+        <v>1.021051117171053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8817830042105264</v>
+      </c>
+      <c r="D20">
+        <v>1.068931940526316</v>
+      </c>
+      <c r="E20">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="F20">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="G20">
+        <v>1.211316996842105</v>
+      </c>
+      <c r="H20">
+        <v>0.9135891294736843</v>
+      </c>
+      <c r="I20">
+        <v>1.070061050526316</v>
+      </c>
+      <c r="J20">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="K20">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="L20">
+        <v>1.324185810526316</v>
+      </c>
+      <c r="M20">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="N20">
+        <v>0.7690529221052632</v>
+      </c>
+      <c r="O20">
+        <v>0.9294880831578947</v>
+      </c>
+      <c r="P20">
+        <v>1.126836946842105</v>
+      </c>
+      <c r="Q20">
+        <v>0.9992100118421053</v>
+      </c>
+      <c r="R20">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="S20">
+        <v>1.107535278070175</v>
+      </c>
+      <c r="T20">
+        <v>1.007575605263158</v>
+      </c>
+      <c r="U20">
+        <v>1.022914689078947</v>
+      </c>
+      <c r="V20">
+        <v>0.9721423356842106</v>
+      </c>
+      <c r="W20">
+        <v>1.021051117171053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.034090599972796</v>
+      </c>
+      <c r="D21">
+        <v>0.9835546829516593</v>
+      </c>
+      <c r="E21">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="F21">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="G21">
+        <v>0.9505635915404078</v>
+      </c>
+      <c r="H21">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="I21">
+        <v>1.001298447372552</v>
+      </c>
+      <c r="J21">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="K21">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="L21">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="M21">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="N21">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="O21">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="P21">
+        <v>0.9830516250759653</v>
+      </c>
+      <c r="Q21">
+        <v>1.016439228361365</v>
+      </c>
+      <c r="R21">
+        <v>0.9905598393099377</v>
+      </c>
+      <c r="S21">
+        <v>0.9832193110345301</v>
+      </c>
+      <c r="T21">
+        <v>0.9905598393099376</v>
+      </c>
+      <c r="U21">
+        <v>0.9888085502203681</v>
+      </c>
+      <c r="V21">
+        <v>0.992162093731871</v>
+      </c>
+      <c r="W21">
+        <v>0.9932809677003605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001411331558807</v>
+      </c>
+      <c r="D22">
+        <v>0.9978967078631088</v>
+      </c>
+      <c r="E22">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="F22">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="G22">
+        <v>0.993052460704794</v>
+      </c>
+      <c r="H22">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="I22">
+        <v>0.9909735381015758</v>
+      </c>
+      <c r="J22">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="K22">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="L22">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="M22">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="N22">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="O22">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="P22">
+        <v>0.990925798039239</v>
+      </c>
+      <c r="Q22">
+        <v>0.9938343831888454</v>
+      </c>
+      <c r="R22">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="S22">
+        <v>0.9932494346471956</v>
+      </c>
+      <c r="T22">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="U22">
+        <v>1.001444535334468</v>
+      </c>
+      <c r="V22">
+        <v>1.006361595746831</v>
+      </c>
+      <c r="W22">
+        <v>0.9999823274681032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.050866482172833</v>
+      </c>
+      <c r="D23">
+        <v>0.9695178793910392</v>
+      </c>
+      <c r="E23">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="F23">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="G23">
+        <v>0.9066378481977073</v>
+      </c>
+      <c r="H23">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="I23">
+        <v>0.9651061255617663</v>
+      </c>
+      <c r="J23">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="K23">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="L23">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="M23">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="N23">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="O23">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="P23">
+        <v>0.9412878014814032</v>
+      </c>
+      <c r="Q23">
+        <v>0.9967607509916041</v>
+      </c>
+      <c r="R23">
+        <v>0.9984508798228031</v>
+      </c>
+      <c r="S23">
+        <v>0.950697827451282</v>
+      </c>
+      <c r="T23">
+        <v>0.9984508798228031</v>
+      </c>
+      <c r="U23">
+        <v>0.9912176297148622</v>
+      </c>
+      <c r="V23">
+        <v>1.01552951107301</v>
+      </c>
+      <c r="W23">
+        <v>0.9911167374690144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.016228222497659</v>
+      </c>
+      <c r="D24">
+        <v>0.99081120536665</v>
+      </c>
+      <c r="E24">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="F24">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="G24">
+        <v>0.9736620774044245</v>
+      </c>
+      <c r="H24">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="I24">
+        <v>0.9943106471279164</v>
+      </c>
+      <c r="J24">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="K24">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="L24">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="M24">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="N24">
+        <v>1.020170739868685</v>
+      </c>
+      <c r="O24">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="P24">
+        <v>0.987263429870335</v>
+      </c>
+      <c r="Q24">
+        <v>1.003073065280247</v>
+      </c>
+      <c r="R24">
+        <v>0.9982325332031184</v>
+      </c>
+      <c r="S24">
+        <v>0.98844602170244</v>
+      </c>
+      <c r="T24">
+        <v>0.9982325332031184</v>
+      </c>
+      <c r="U24">
+        <v>0.9963772012440013</v>
+      </c>
+      <c r="V24">
+        <v>1.001135908968938</v>
+      </c>
+      <c r="W24">
+        <v>0.9971651829433044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.034090599972796</v>
+      </c>
+      <c r="D25">
+        <v>0.9835546829516595</v>
+      </c>
+      <c r="E25">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="F25">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="G25">
+        <v>0.9505635915404078</v>
+      </c>
+      <c r="H25">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="I25">
+        <v>1.001298447372552</v>
+      </c>
+      <c r="J25">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="K25">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="L25">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="M25">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="N25">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="O25">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="P25">
+        <v>0.9830516250759653</v>
+      </c>
+      <c r="Q25">
+        <v>1.016439228361365</v>
+      </c>
+      <c r="R25">
+        <v>0.9905598393099377</v>
+      </c>
+      <c r="S25">
+        <v>0.9832193110345301</v>
+      </c>
+      <c r="T25">
+        <v>0.9905598393099377</v>
+      </c>
+      <c r="U25">
+        <v>0.9888085502203682</v>
+      </c>
+      <c r="V25">
+        <v>0.992162093731871</v>
+      </c>
+      <c r="W25">
+        <v>0.9932809677003605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001411331558807</v>
+      </c>
+      <c r="D26">
+        <v>0.9978967078631088</v>
+      </c>
+      <c r="E26">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="F26">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="G26">
+        <v>0.993052460704794</v>
+      </c>
+      <c r="H26">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="I26">
+        <v>0.9909735381015756</v>
+      </c>
+      <c r="J26">
+        <v>0.9920795375638962</v>
+      </c>
+      <c r="K26">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="L26">
+        <v>0.9920795375638962</v>
+      </c>
+      <c r="M26">
+        <v>0.9897720585145821</v>
+      </c>
+      <c r="N26">
+        <v>1.026029837396284</v>
+      </c>
+      <c r="O26">
+        <v>0.9897720585145821</v>
+      </c>
+      <c r="P26">
+        <v>0.9909257980392392</v>
+      </c>
+      <c r="Q26">
+        <v>0.9938343831888454</v>
+      </c>
+      <c r="R26">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="S26">
+        <v>0.9932494346471957</v>
+      </c>
+      <c r="T26">
+        <v>1.002627144491587</v>
+      </c>
+      <c r="U26">
+        <v>1.001444535334468</v>
+      </c>
+      <c r="V26">
+        <v>1.006361595746831</v>
+      </c>
+      <c r="W26">
+        <v>0.9999823274681032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9823398228313622</v>
+      </c>
+      <c r="D27">
+        <v>1.010468112440104</v>
+      </c>
+      <c r="E27">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="F27">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="G27">
+        <v>1.031026266100921</v>
+      </c>
+      <c r="H27">
+        <v>0.9877979911755792</v>
+      </c>
+      <c r="I27">
+        <v>1.010128997118656</v>
+      </c>
+      <c r="J27">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="K27">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="L27">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="M27">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="N27">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="O27">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="P27">
+        <v>1.017948473919491</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996258613151734</v>
+      </c>
+      <c r="R27">
+        <v>1.000865781326997</v>
+      </c>
+      <c r="S27">
+        <v>1.015455020093029</v>
+      </c>
+      <c r="T27">
+        <v>1.000865781326997</v>
+      </c>
+      <c r="U27">
+        <v>1.003266364105274</v>
+      </c>
+      <c r="V27">
+        <v>0.9959531705126213</v>
+      </c>
+      <c r="W27">
+        <v>1.003044816705952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9948913630155064</v>
+      </c>
+      <c r="D28">
+        <v>1.004025841864834</v>
+      </c>
+      <c r="E28">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="F28">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="G28">
+        <v>1.012328980196833</v>
+      </c>
+      <c r="H28">
+        <v>0.990682118022628</v>
+      </c>
+      <c r="I28">
+        <v>1.009193281182009</v>
+      </c>
+      <c r="J28">
+        <v>1.016630507987192</v>
+      </c>
+      <c r="K28">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="L28">
+        <v>1.016630507987192</v>
+      </c>
+      <c r="M28">
+        <v>1.005201963664385</v>
+      </c>
+      <c r="N28">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="O28">
+        <v>1.005201963664385</v>
+      </c>
+      <c r="P28">
+        <v>1.010916235825788</v>
+      </c>
+      <c r="Q28">
+        <v>1.004613902764609</v>
+      </c>
+      <c r="R28">
+        <v>0.9981408066081848</v>
+      </c>
+      <c r="S28">
+        <v>1.008619437838804</v>
+      </c>
+      <c r="T28">
+        <v>0.9981408066081848</v>
+      </c>
+      <c r="U28">
+        <v>0.999612065422347</v>
+      </c>
+      <c r="V28">
+        <v>0.9942076419724731</v>
+      </c>
+      <c r="W28">
+        <v>1.000693000513296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.051180337857057</v>
+      </c>
+      <c r="D29">
+        <v>0.972103820772702</v>
+      </c>
+      <c r="E29">
+        <v>1.064872347124905</v>
+      </c>
+      <c r="F29">
+        <v>1.064872347124905</v>
+      </c>
+      <c r="G29">
+        <v>0.9151691446341558</v>
+      </c>
+      <c r="H29">
+        <v>1.025946454118078</v>
+      </c>
+      <c r="I29">
+        <v>0.9820303166413005</v>
+      </c>
+      <c r="J29">
+        <v>0.86568828622046</v>
+      </c>
+      <c r="K29">
+        <v>1.064872347124905</v>
+      </c>
+      <c r="L29">
+        <v>0.86568828622046</v>
+      </c>
+      <c r="M29">
+        <v>1.047221505985671</v>
+      </c>
+      <c r="N29">
+        <v>1.064872347124905</v>
+      </c>
+      <c r="O29">
+        <v>1.047221505985671</v>
+      </c>
+      <c r="P29">
+        <v>0.9564548961030657</v>
+      </c>
+      <c r="Q29">
+        <v>1.009662663379187</v>
+      </c>
+      <c r="R29">
+        <v>0.9925940464436787</v>
+      </c>
+      <c r="S29">
+        <v>0.9616712043262777</v>
+      </c>
+      <c r="T29">
+        <v>0.9925940464436787</v>
+      </c>
+      <c r="U29">
+        <v>0.9874714900259345</v>
+      </c>
+      <c r="V29">
+        <v>1.002951661445729</v>
+      </c>
+      <c r="W29">
+        <v>0.9905265266692913</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9564383249145462</v>
+        <v>0.9568553337341308</v>
       </c>
       <c r="D4">
-        <v>1.024712321327953</v>
+        <v>1.024395640642902</v>
       </c>
       <c r="E4">
-        <v>0.9276066068834522</v>
+        <v>0.9294076016082174</v>
       </c>
       <c r="F4">
-        <v>0.9276066068834522</v>
+        <v>0.9294076016082174</v>
       </c>
       <c r="G4">
-        <v>1.075437561236196</v>
+        <v>1.074530152378877</v>
       </c>
       <c r="H4">
-        <v>0.972329157665096</v>
+        <v>0.9729309972573185</v>
       </c>
       <c r="I4">
-        <v>1.021348448190137</v>
+        <v>1.020747250828458</v>
       </c>
       <c r="J4">
-        <v>1.117196808532738</v>
+        <v>1.115971740886554</v>
       </c>
       <c r="K4">
-        <v>0.9276066068834522</v>
+        <v>0.9294076016082174</v>
       </c>
       <c r="L4">
-        <v>1.117196808532738</v>
+        <v>1.115971740886554</v>
       </c>
       <c r="M4">
-        <v>0.9679673931814087</v>
+        <v>0.9677560460422687</v>
       </c>
       <c r="N4">
-        <v>0.9276066068834522</v>
+        <v>0.9294076016082174</v>
       </c>
       <c r="O4">
-        <v>0.9679673931814087</v>
+        <v>0.9677560460422687</v>
       </c>
       <c r="P4">
-        <v>1.042582100857073</v>
+        <v>1.041863893464412</v>
       </c>
       <c r="Q4">
-        <v>0.9963398572546807</v>
+        <v>0.9960758433425856</v>
       </c>
       <c r="R4">
-        <v>1.0042569361992</v>
+        <v>1.00437846284568</v>
       </c>
       <c r="S4">
-        <v>1.0366255076807</v>
+        <v>1.036041142523908</v>
       </c>
       <c r="T4">
-        <v>1.0042569361992</v>
+        <v>1.00437846284568</v>
       </c>
       <c r="U4">
-        <v>1.009370782481388</v>
+        <v>1.009382757294986</v>
       </c>
       <c r="V4">
-        <v>0.9930179473618006</v>
+        <v>0.9933877261576323</v>
       </c>
       <c r="W4">
-        <v>1.007879577741441</v>
+        <v>1.007824345422341</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.946760600172917</v>
+        <v>0.9018153213447625</v>
       </c>
       <c r="D5">
-        <v>1.030119338537464</v>
+        <v>1.058058655147848</v>
       </c>
       <c r="E5">
-        <v>0.9121282797982697</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="F5">
-        <v>0.9121282797982697</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="G5">
-        <v>1.092147980259361</v>
+        <v>1.17775512676139</v>
       </c>
       <c r="H5">
-        <v>0.9663133948054755</v>
+        <v>0.9242586888855144</v>
       </c>
       <c r="I5">
-        <v>1.025860456585015</v>
+        <v>1.062667509261913</v>
       </c>
       <c r="J5">
-        <v>1.143361428991356</v>
+        <v>1.270913357240371</v>
       </c>
       <c r="K5">
-        <v>0.9121282797982697</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="L5">
-        <v>1.143361428991356</v>
+        <v>1.270913357240371</v>
       </c>
       <c r="M5">
-        <v>0.9605868415850128</v>
+        <v>0.9473807469373492</v>
       </c>
       <c r="N5">
-        <v>0.9121282797982697</v>
+        <v>0.7955782667728933</v>
       </c>
       <c r="O5">
-        <v>0.9605868415850128</v>
+        <v>0.9473807469373492</v>
       </c>
       <c r="P5">
-        <v>1.051974135288185</v>
+        <v>1.10914705208886</v>
       </c>
       <c r="Q5">
-        <v>0.9953530900612384</v>
+        <v>1.002719701042599</v>
       </c>
       <c r="R5">
-        <v>1.00535885012488</v>
+        <v>1.004624123650204</v>
       </c>
       <c r="S5">
-        <v>1.044689203037944</v>
+        <v>1.092117586441856</v>
       </c>
       <c r="T5">
-        <v>1.00535885012488</v>
+        <v>1.004624123650204</v>
       </c>
       <c r="U5">
-        <v>1.011548972228026</v>
+        <v>1.017982756524615</v>
       </c>
       <c r="V5">
-        <v>0.9916648337420746</v>
+        <v>0.973501858574271</v>
       </c>
       <c r="W5">
-        <v>1.009659790091859</v>
+        <v>1.017303459044005</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.822264736118542</v>
+        <v>0.9564383249145462</v>
       </c>
       <c r="D6">
-        <v>1.099314315810659</v>
+        <v>1.024712321327953</v>
       </c>
       <c r="E6">
-        <v>0.720774027616488</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="F6">
-        <v>0.720774027616488</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="G6">
-        <v>1.305551402451985</v>
+        <v>1.075437561236196</v>
       </c>
       <c r="H6">
-        <v>0.8915506948274331</v>
+        <v>0.972329157665096</v>
       </c>
       <c r="I6">
-        <v>1.08119579551167</v>
+        <v>1.021348448190137</v>
       </c>
       <c r="J6">
-        <v>1.478291339462981</v>
+        <v>1.117196808532738</v>
       </c>
       <c r="K6">
-        <v>0.720774027616488</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="L6">
-        <v>1.478291339462981</v>
+        <v>1.117196808532738</v>
       </c>
       <c r="M6">
-        <v>0.8619196677343508</v>
+        <v>0.9679673931814087</v>
       </c>
       <c r="N6">
-        <v>0.720774027616488</v>
+        <v>0.9276066068834522</v>
       </c>
       <c r="O6">
-        <v>0.8619196677343508</v>
+        <v>0.9679673931814087</v>
       </c>
       <c r="P6">
-        <v>1.170105503598666</v>
+        <v>1.042582100857073</v>
       </c>
       <c r="Q6">
-        <v>0.9806169917725048</v>
+        <v>0.9963398572546807</v>
       </c>
       <c r="R6">
-        <v>1.02032834493794</v>
+        <v>1.0042569361992</v>
       </c>
       <c r="S6">
-        <v>1.146508441002664</v>
+        <v>1.0366255076807</v>
       </c>
       <c r="T6">
-        <v>1.02032834493794</v>
+        <v>1.0042569361992</v>
       </c>
       <c r="U6">
-        <v>1.04007483765612</v>
+        <v>1.009370782481388</v>
       </c>
       <c r="V6">
-        <v>0.9762146756481934</v>
+        <v>0.9930179473618006</v>
       </c>
       <c r="W6">
-        <v>1.032607747441764</v>
+        <v>1.007879577741441</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9946094029539509</v>
+        <v>0.946760600172917</v>
       </c>
       <c r="D7">
-        <v>1.00315743699402</v>
+        <v>1.030119338537464</v>
       </c>
       <c r="E7">
-        <v>0.9893031392470139</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="F7">
-        <v>0.9893031392470139</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="G7">
-        <v>1.009660685136929</v>
+        <v>1.092147980259361</v>
       </c>
       <c r="H7">
-        <v>0.9960122198371558</v>
+        <v>0.9663133948054755</v>
       </c>
       <c r="I7">
-        <v>1.003254928708039</v>
+        <v>1.025860456585015</v>
       </c>
       <c r="J7">
-        <v>1.014787719207138</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="K7">
-        <v>0.9893031392470139</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="L7">
-        <v>1.014787719207138</v>
+        <v>1.143361428991356</v>
       </c>
       <c r="M7">
-        <v>0.9968612203149763</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="N7">
-        <v>0.9893031392470139</v>
+        <v>0.9121282797982697</v>
       </c>
       <c r="O7">
-        <v>0.9968612203149763</v>
+        <v>0.9605868415850128</v>
       </c>
       <c r="P7">
-        <v>1.005824469761057</v>
+        <v>1.051974135288185</v>
       </c>
       <c r="Q7">
-        <v>1.000009328654498</v>
+        <v>0.9953530900612384</v>
       </c>
       <c r="R7">
-        <v>1.000317359589709</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="S7">
-        <v>1.004935458838712</v>
+        <v>1.044689203037944</v>
       </c>
       <c r="T7">
-        <v>1.000317359589709</v>
+        <v>1.00535885012488</v>
       </c>
       <c r="U7">
-        <v>1.001027378940787</v>
+        <v>1.011548972228026</v>
       </c>
       <c r="V7">
-        <v>0.9986825310020324</v>
+        <v>0.9916648337420746</v>
       </c>
       <c r="W7">
-        <v>1.000955844049903</v>
+        <v>1.009659790091859</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995731993040173</v>
+        <v>0.822264736118542</v>
       </c>
       <c r="D8">
-        <v>1.000243020245334</v>
+        <v>1.099314315810659</v>
       </c>
       <c r="E8">
-        <v>0.9992499930584626</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="F8">
-        <v>0.9992499930584626</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="G8">
-        <v>1.000748621565784</v>
+        <v>1.305551402451985</v>
       </c>
       <c r="H8">
-        <v>0.9997137932173426</v>
+        <v>0.8915506948274331</v>
       </c>
       <c r="I8">
-        <v>1.000223012288042</v>
+        <v>1.08119579551167</v>
       </c>
       <c r="J8">
-        <v>1.00116159924621</v>
+        <v>1.478291339462981</v>
       </c>
       <c r="K8">
-        <v>0.9992499930584626</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="L8">
-        <v>1.00116159924621</v>
+        <v>1.478291339462981</v>
       </c>
       <c r="M8">
-        <v>0.999706161075569</v>
+        <v>0.8619196677343508</v>
       </c>
       <c r="N8">
-        <v>0.9992499930584626</v>
+        <v>0.720774027616488</v>
       </c>
       <c r="O8">
-        <v>0.999706161075569</v>
+        <v>0.8619196677343508</v>
       </c>
       <c r="P8">
-        <v>1.000433880160889</v>
+        <v>1.170105503598666</v>
       </c>
       <c r="Q8">
-        <v>0.9999745906604514</v>
+        <v>0.9806169917725048</v>
       </c>
       <c r="R8">
-        <v>1.000039251126747</v>
+        <v>1.02032834493794</v>
       </c>
       <c r="S8">
-        <v>1.000370260189037</v>
+        <v>1.146508441002664</v>
       </c>
       <c r="T8">
-        <v>1.000039251126747</v>
+        <v>1.02032834493794</v>
       </c>
       <c r="U8">
-        <v>1.000090193406394</v>
+        <v>1.04007483765612</v>
       </c>
       <c r="V8">
-        <v>0.9999221533368076</v>
+        <v>0.9762146756481934</v>
       </c>
       <c r="W8">
-        <v>1.000077425000095</v>
+        <v>1.032607747441764</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9909781362807443</v>
+        <v>0.9946094029539509</v>
       </c>
       <c r="D9">
-        <v>1.005283409744854</v>
+        <v>1.00315743699402</v>
       </c>
       <c r="E9">
-        <v>0.9820018796983366</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="F9">
-        <v>0.9820018796983366</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="G9">
-        <v>1.016194835447213</v>
+        <v>1.009660685136929</v>
       </c>
       <c r="H9">
-        <v>0.9932864214357938</v>
+        <v>0.9960122198371558</v>
       </c>
       <c r="I9">
-        <v>1.00547891748267</v>
+        <v>1.003254928708039</v>
       </c>
       <c r="J9">
-        <v>1.024794948698685</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="K9">
-        <v>0.9820018796983366</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="L9">
-        <v>1.024794948698685</v>
+        <v>1.014787719207138</v>
       </c>
       <c r="M9">
-        <v>0.994795216831841</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="N9">
-        <v>0.9820018796983366</v>
+        <v>0.9893031392470139</v>
       </c>
       <c r="O9">
-        <v>0.994795216831841</v>
+        <v>0.9968612203149763</v>
       </c>
       <c r="P9">
-        <v>1.009795082765263</v>
+        <v>1.005824469761057</v>
       </c>
       <c r="Q9">
-        <v>1.000039313288348</v>
+        <v>1.000009328654498</v>
       </c>
       <c r="R9">
-        <v>1.000530681742954</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="S9">
-        <v>1.00829119175846</v>
+        <v>1.004935458838712</v>
       </c>
       <c r="T9">
-        <v>1.000530681742954</v>
+        <v>1.000317359589709</v>
       </c>
       <c r="U9">
-        <v>1.001718863743429</v>
+        <v>1.001027378940787</v>
       </c>
       <c r="V9">
-        <v>0.9977754669344108</v>
+        <v>0.9986825310020324</v>
       </c>
       <c r="W9">
-        <v>1.001601720702517</v>
+        <v>1.000955844049903</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8195408192194931</v>
+        <v>0.9995731993040173</v>
       </c>
       <c r="D10">
-        <v>1.100746016214673</v>
+        <v>1.000243020245334</v>
       </c>
       <c r="E10">
-        <v>0.7170989345127874</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="F10">
-        <v>0.7170989345127874</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="G10">
-        <v>1.310195015660286</v>
+        <v>1.000748621565784</v>
       </c>
       <c r="H10">
-        <v>0.8900104641309623</v>
+        <v>0.9997137932173426</v>
       </c>
       <c r="I10">
-        <v>1.082206914024886</v>
+        <v>1.000223012288042</v>
       </c>
       <c r="J10">
-        <v>1.485783611530582</v>
+        <v>1.00116159924621</v>
       </c>
       <c r="K10">
-        <v>0.7170989345127874</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="L10">
-        <v>1.485783611530582</v>
+        <v>1.00116159924621</v>
       </c>
       <c r="M10">
-        <v>0.859542994276123</v>
+        <v>0.999706161075569</v>
       </c>
       <c r="N10">
-        <v>0.7170989345127874</v>
+        <v>0.9992499930584626</v>
       </c>
       <c r="O10">
-        <v>0.859542994276123</v>
+        <v>0.999706161075569</v>
       </c>
       <c r="P10">
-        <v>1.172663302903352</v>
+        <v>1.000433880160889</v>
       </c>
       <c r="Q10">
-        <v>0.9801445052453982</v>
+        <v>0.9999745906604514</v>
       </c>
       <c r="R10">
-        <v>1.020808513439831</v>
+        <v>1.000039251126747</v>
       </c>
       <c r="S10">
-        <v>1.148690874007126</v>
+        <v>1.000370260189037</v>
       </c>
       <c r="T10">
-        <v>1.020808513439831</v>
+        <v>1.000039251126747</v>
       </c>
       <c r="U10">
-        <v>1.040792889133541</v>
+        <v>1.000090193406394</v>
       </c>
       <c r="V10">
-        <v>0.9760540982093906</v>
+        <v>0.9999221533368076</v>
       </c>
       <c r="W10">
-        <v>1.033140596196224</v>
+        <v>1.000077425000095</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9717148276990828</v>
+        <v>0.9909781362807443</v>
       </c>
       <c r="D11">
-        <v>1.015459622188178</v>
+        <v>1.005283409744854</v>
       </c>
       <c r="E11">
-        <v>0.961949487039654</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="F11">
-        <v>0.961949487039654</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="G11">
-        <v>1.04740416401096</v>
+        <v>1.016194835447213</v>
       </c>
       <c r="H11">
-        <v>0.9848375610440309</v>
+        <v>0.9932864214357938</v>
       </c>
       <c r="I11">
-        <v>1.010676411670092</v>
+        <v>1.00547891748267</v>
       </c>
       <c r="J11">
-        <v>1.074977480099742</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="K11">
-        <v>0.961949487039654</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="L11">
-        <v>1.074977480099742</v>
+        <v>1.024794948698685</v>
       </c>
       <c r="M11">
-        <v>0.9749852605135821</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="N11">
-        <v>0.961949487039654</v>
+        <v>0.9820018796983366</v>
       </c>
       <c r="O11">
-        <v>0.9749852605135821</v>
+        <v>0.994795216831841</v>
       </c>
       <c r="P11">
-        <v>1.024981370306662</v>
+        <v>1.009795082765263</v>
       </c>
       <c r="Q11">
-        <v>0.9952224413508799</v>
+        <v>1.000039313288348</v>
       </c>
       <c r="R11">
-        <v>1.003970742550993</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="S11">
-        <v>1.021807454267167</v>
+        <v>1.00829119175846</v>
       </c>
       <c r="T11">
-        <v>1.003970742550993</v>
+        <v>1.000530681742954</v>
       </c>
       <c r="U11">
-        <v>1.006842962460289</v>
+        <v>1.001718863743429</v>
       </c>
       <c r="V11">
-        <v>0.9978642673761617</v>
+        <v>0.9977754669344108</v>
       </c>
       <c r="W11">
-        <v>1.005250601783165</v>
+        <v>1.001601720702517</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9455345901578988</v>
+        <v>0.8195408192194931</v>
       </c>
       <c r="D12">
-        <v>1.030443909547371</v>
+        <v>1.100746016214673</v>
       </c>
       <c r="E12">
-        <v>0.9141002701473663</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="F12">
-        <v>0.9141002701473663</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="G12">
-        <v>1.093708099894731</v>
+        <v>1.310195015660286</v>
       </c>
       <c r="H12">
-        <v>0.9666464352631612</v>
+        <v>0.8900104641309623</v>
       </c>
       <c r="I12">
-        <v>1.024996017957895</v>
+        <v>1.082206914024886</v>
       </c>
       <c r="J12">
-        <v>1.146665653073684</v>
+        <v>1.485783611530582</v>
       </c>
       <c r="K12">
-        <v>0.9141002701473663</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="L12">
-        <v>1.146665653073684</v>
+        <v>1.485783611530582</v>
       </c>
       <c r="M12">
-        <v>0.9578490455578901</v>
+        <v>0.859542994276123</v>
       </c>
       <c r="N12">
-        <v>0.9141002701473663</v>
+        <v>0.7170989345127874</v>
       </c>
       <c r="O12">
-        <v>0.9578490455578901</v>
+        <v>0.859542994276123</v>
       </c>
       <c r="P12">
-        <v>1.052257349315787</v>
+        <v>1.172663302903352</v>
       </c>
       <c r="Q12">
-        <v>0.9941464775526305</v>
+        <v>0.9801445052453982</v>
       </c>
       <c r="R12">
-        <v>1.00620498959298</v>
+        <v>1.020808513439831</v>
       </c>
       <c r="S12">
-        <v>1.044986202726315</v>
+        <v>1.148690874007126</v>
       </c>
       <c r="T12">
-        <v>1.00620498959298</v>
+        <v>1.020808513439831</v>
       </c>
       <c r="U12">
-        <v>1.012264719581578</v>
+        <v>1.040792889133541</v>
       </c>
       <c r="V12">
-        <v>0.9926318296947354</v>
+        <v>0.9760540982093906</v>
       </c>
       <c r="W12">
-        <v>1.009993002699999</v>
+        <v>1.033140596196224</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.034486088911355</v>
+        <v>0.9717148276990828</v>
       </c>
       <c r="D13">
-        <v>0.9800112425909329</v>
+        <v>1.015459622188178</v>
       </c>
       <c r="E13">
-        <v>1.060401177966483</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="F13">
-        <v>1.060401177966483</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="G13">
-        <v>0.9400294114808918</v>
+        <v>1.04740416401096</v>
       </c>
       <c r="H13">
-        <v>1.02257827763927</v>
+        <v>0.9848375610440309</v>
       </c>
       <c r="I13">
-        <v>0.9819197402454248</v>
+        <v>1.010676411670092</v>
       </c>
       <c r="J13">
-        <v>0.9078750939374961</v>
+        <v>1.074977480099742</v>
       </c>
       <c r="K13">
-        <v>1.060401177966483</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="L13">
-        <v>0.9078750939374961</v>
+        <v>1.074977480099742</v>
       </c>
       <c r="M13">
-        <v>1.024009274926484</v>
+        <v>0.9749852605135821</v>
       </c>
       <c r="N13">
-        <v>1.060401177966483</v>
+        <v>0.961949487039654</v>
       </c>
       <c r="O13">
-        <v>1.024009274926484</v>
+        <v>0.9749852605135821</v>
       </c>
       <c r="P13">
-        <v>0.9659421844319902</v>
+        <v>1.024981370306662</v>
       </c>
       <c r="Q13">
-        <v>1.002010258758709</v>
+        <v>0.9952224413508799</v>
       </c>
       <c r="R13">
-        <v>0.9974285156101547</v>
+        <v>1.003970742550993</v>
       </c>
       <c r="S13">
-        <v>0.9706318704849711</v>
+        <v>1.021807454267167</v>
       </c>
       <c r="T13">
-        <v>0.9974285156101548</v>
+        <v>1.003970742550993</v>
       </c>
       <c r="U13">
-        <v>0.9930741973553493</v>
+        <v>1.006842962460289</v>
       </c>
       <c r="V13">
-        <v>1.006539593477576</v>
+        <v>0.9978642673761617</v>
       </c>
       <c r="W13">
-        <v>0.9939137884622923</v>
+        <v>1.005250601783165</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.687925</v>
+        <v>0.9455345901578988</v>
       </c>
       <c r="D14">
-        <v>1.174102300000001</v>
+        <v>1.030443909547371</v>
       </c>
       <c r="E14">
-        <v>0.5123396</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="F14">
-        <v>0.5123396</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="G14">
-        <v>1.536180099999999</v>
+        <v>1.093708099894731</v>
       </c>
       <c r="H14">
-        <v>0.8102580500000012</v>
+        <v>0.9666464352631612</v>
       </c>
       <c r="I14">
-        <v>1.141597899999999</v>
+        <v>1.024996017957895</v>
       </c>
       <c r="J14">
-        <v>1.839975600000002</v>
+        <v>1.146665653073684</v>
       </c>
       <c r="K14">
-        <v>0.5123396</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="L14">
-        <v>1.839975600000002</v>
+        <v>1.146665653073684</v>
       </c>
       <c r="M14">
-        <v>0.7563715000000001</v>
+        <v>0.9578490455578901</v>
       </c>
       <c r="N14">
-        <v>0.5123396</v>
+        <v>0.9141002701473663</v>
       </c>
       <c r="O14">
-        <v>0.7563715000000001</v>
+        <v>0.9578490455578901</v>
       </c>
       <c r="P14">
-        <v>1.298173550000001</v>
+        <v>1.052257349315787</v>
       </c>
       <c r="Q14">
-        <v>0.9652369000000005</v>
+        <v>0.9941464775526305</v>
       </c>
       <c r="R14">
-        <v>1.0362289</v>
+        <v>1.00620498959298</v>
       </c>
       <c r="S14">
-        <v>1.256816466666667</v>
+        <v>1.044986202726315</v>
       </c>
       <c r="T14">
-        <v>1.0362289</v>
+        <v>1.00620498959298</v>
       </c>
       <c r="U14">
-        <v>1.070697250000001</v>
+        <v>1.012264719581578</v>
       </c>
       <c r="V14">
-        <v>0.9590257200000005</v>
+        <v>0.9926318296947354</v>
       </c>
       <c r="W14">
-        <v>1.05734375625</v>
+        <v>1.009993002699999</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.687925</v>
+        <v>1.034486088911355</v>
       </c>
       <c r="D15">
-        <v>1.1741023</v>
+        <v>0.9800112425909329</v>
       </c>
       <c r="E15">
-        <v>0.5123396</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="F15">
-        <v>0.5123396</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="G15">
-        <v>1.5361801</v>
+        <v>0.9400294114808918</v>
       </c>
       <c r="H15">
-        <v>0.81025805</v>
+        <v>1.02257827763927</v>
       </c>
       <c r="I15">
-        <v>1.1415979</v>
+        <v>0.9819197402454248</v>
       </c>
       <c r="J15">
-        <v>1.8399756</v>
+        <v>0.9078750939374961</v>
       </c>
       <c r="K15">
-        <v>0.5123396</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="L15">
-        <v>1.8399756</v>
+        <v>0.9078750939374961</v>
       </c>
       <c r="M15">
-        <v>0.7563714999999999</v>
+        <v>1.024009274926484</v>
       </c>
       <c r="N15">
-        <v>0.5123396</v>
+        <v>1.060401177966483</v>
       </c>
       <c r="O15">
-        <v>0.7563714999999999</v>
+        <v>1.024009274926484</v>
       </c>
       <c r="P15">
-        <v>1.29817355</v>
+        <v>0.9659421844319902</v>
       </c>
       <c r="Q15">
-        <v>0.9652368999999998</v>
+        <v>1.002010258758709</v>
       </c>
       <c r="R15">
-        <v>1.0362289</v>
+        <v>0.9974285156101547</v>
       </c>
       <c r="S15">
-        <v>1.256816466666667</v>
+        <v>0.9706318704849711</v>
       </c>
       <c r="T15">
-        <v>1.0362289</v>
+        <v>0.9974285156101548</v>
       </c>
       <c r="U15">
-        <v>1.07069725</v>
+        <v>0.9930741973553493</v>
       </c>
       <c r="V15">
-        <v>0.9590257199999999</v>
+        <v>1.006539593477576</v>
       </c>
       <c r="W15">
-        <v>1.05734375625</v>
+        <v>0.9939137884622923</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1597,7 +1603,7 @@
         <v>0.687925</v>
       </c>
       <c r="D16">
-        <v>1.1741023</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="E16">
         <v>0.5123396</v>
@@ -1606,37 +1612,37 @@
         <v>0.5123396</v>
       </c>
       <c r="G16">
-        <v>1.5361801</v>
+        <v>1.536180099999999</v>
       </c>
       <c r="H16">
-        <v>0.81025805</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="I16">
-        <v>1.1415979</v>
+        <v>1.141597899999999</v>
       </c>
       <c r="J16">
-        <v>1.8399756</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="K16">
         <v>0.5123396</v>
       </c>
       <c r="L16">
-        <v>1.8399756</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="M16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="N16">
         <v>0.5123396</v>
       </c>
       <c r="O16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="P16">
-        <v>1.29817355</v>
+        <v>1.298173550000001</v>
       </c>
       <c r="Q16">
-        <v>0.9652368999999998</v>
+        <v>0.9652369000000005</v>
       </c>
       <c r="R16">
         <v>1.0362289</v>
@@ -1648,10 +1654,10 @@
         <v>1.0362289</v>
       </c>
       <c r="U16">
-        <v>1.07069725</v>
+        <v>1.070697250000001</v>
       </c>
       <c r="V16">
-        <v>0.9590257199999999</v>
+        <v>0.9590257200000005</v>
       </c>
       <c r="W16">
         <v>1.05734375625</v>
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99486683</v>
+        <v>0.687925</v>
       </c>
       <c r="D17">
-        <v>1.0075826</v>
+        <v>1.1741023</v>
       </c>
       <c r="E17">
-        <v>0.9188023600000002</v>
+        <v>0.5123396</v>
       </c>
       <c r="F17">
-        <v>0.9188023600000002</v>
+        <v>0.5123396</v>
       </c>
       <c r="G17">
-        <v>1.0218135</v>
+        <v>1.5361801</v>
       </c>
       <c r="H17">
-        <v>0.9738656</v>
+        <v>0.81025805</v>
       </c>
       <c r="I17">
-        <v>1.0283312</v>
+        <v>1.1415979</v>
       </c>
       <c r="J17">
-        <v>1.0233084</v>
+        <v>1.8399756</v>
       </c>
       <c r="K17">
-        <v>0.9188023600000002</v>
+        <v>0.5123396</v>
       </c>
       <c r="L17">
-        <v>1.0233084</v>
+        <v>1.8399756</v>
       </c>
       <c r="M17">
-        <v>1.0304728</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N17">
-        <v>0.9188023600000002</v>
+        <v>0.5123396</v>
       </c>
       <c r="O17">
-        <v>1.0304728</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P17">
-        <v>1.0268906</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q17">
-        <v>1.0190277</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R17">
-        <v>0.9908611866666668</v>
+        <v>1.0362289</v>
       </c>
       <c r="S17">
-        <v>1.0204546</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T17">
-        <v>0.9908611866666668</v>
+        <v>1.0362289</v>
       </c>
       <c r="U17">
-        <v>0.9950415400000001</v>
+        <v>1.07069725</v>
       </c>
       <c r="V17">
-        <v>0.9797937040000001</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W17">
-        <v>0.99988041125</v>
+        <v>1.05734375625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8897497715068491</v>
+        <v>0.687925</v>
       </c>
       <c r="D18">
-        <v>1.064609870958904</v>
+        <v>1.1741023</v>
       </c>
       <c r="E18">
-        <v>0.7796027846575342</v>
+        <v>0.5123396</v>
       </c>
       <c r="F18">
-        <v>0.7796027846575342</v>
+        <v>0.5123396</v>
       </c>
       <c r="G18">
-        <v>1.197966458356165</v>
+        <v>1.5361801</v>
       </c>
       <c r="H18">
-        <v>0.9178356121917809</v>
+        <v>0.81025805</v>
       </c>
       <c r="I18">
-        <v>1.06712118</v>
+        <v>1.1415979</v>
       </c>
       <c r="J18">
-        <v>1.302988969863014</v>
+        <v>1.8399756</v>
       </c>
       <c r="K18">
-        <v>0.7796027846575342</v>
+        <v>0.5123396</v>
       </c>
       <c r="L18">
-        <v>1.302988969863014</v>
+        <v>1.8399756</v>
       </c>
       <c r="M18">
-        <v>0.9366024632876709</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="N18">
-        <v>0.7796027846575342</v>
+        <v>0.5123396</v>
       </c>
       <c r="O18">
-        <v>0.9366024632876709</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="P18">
-        <v>1.119795716575342</v>
+        <v>1.29817355</v>
       </c>
       <c r="Q18">
-        <v>1.000606167123287</v>
+        <v>0.9652368999999998</v>
       </c>
       <c r="R18">
-        <v>1.00639807260274</v>
+        <v>1.0362289</v>
       </c>
       <c r="S18">
-        <v>1.101400434703196</v>
+        <v>1.256816466666667</v>
       </c>
       <c r="T18">
-        <v>1.00639807260274</v>
+        <v>1.0362289</v>
       </c>
       <c r="U18">
-        <v>1.020951022191781</v>
+        <v>1.07069725</v>
       </c>
       <c r="V18">
-        <v>0.9726813746849314</v>
+        <v>0.9590257199999999</v>
       </c>
       <c r="W18">
-        <v>1.01955963885274</v>
+        <v>1.05734375625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8817830042105264</v>
+        <v>0.99486683</v>
       </c>
       <c r="D19">
-        <v>1.068931940526316</v>
+        <v>1.0075826</v>
       </c>
       <c r="E19">
-        <v>0.7690529221052632</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="F19">
-        <v>0.7690529221052632</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="G19">
-        <v>1.211316996842105</v>
+        <v>1.0218135</v>
       </c>
       <c r="H19">
-        <v>0.9135891294736843</v>
+        <v>0.9738656</v>
       </c>
       <c r="I19">
-        <v>1.070061050526316</v>
+        <v>1.0283312</v>
       </c>
       <c r="J19">
-        <v>1.324185810526316</v>
+        <v>1.0233084</v>
       </c>
       <c r="K19">
-        <v>0.7690529221052632</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="L19">
-        <v>1.324185810526316</v>
+        <v>1.0233084</v>
       </c>
       <c r="M19">
-        <v>0.9294880831578947</v>
+        <v>1.0304728</v>
       </c>
       <c r="N19">
-        <v>0.7690529221052632</v>
+        <v>0.9188023600000002</v>
       </c>
       <c r="O19">
-        <v>0.9294880831578947</v>
+        <v>1.0304728</v>
       </c>
       <c r="P19">
-        <v>1.126836946842105</v>
+        <v>1.0268906</v>
       </c>
       <c r="Q19">
-        <v>0.9992100118421053</v>
+        <v>1.0190277</v>
       </c>
       <c r="R19">
-        <v>1.007575605263158</v>
+        <v>0.9908611866666668</v>
       </c>
       <c r="S19">
-        <v>1.107535278070175</v>
+        <v>1.0204546</v>
       </c>
       <c r="T19">
-        <v>1.007575605263158</v>
+        <v>0.9908611866666668</v>
       </c>
       <c r="U19">
-        <v>1.022914689078947</v>
+        <v>0.9950415400000001</v>
       </c>
       <c r="V19">
-        <v>0.9721423356842106</v>
+        <v>0.9797937040000001</v>
       </c>
       <c r="W19">
-        <v>1.021051117171053</v>
+        <v>0.99988041125</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8817830042105264</v>
+        <v>0.8897497715068491</v>
       </c>
       <c r="D20">
-        <v>1.068931940526316</v>
+        <v>1.064609870958904</v>
       </c>
       <c r="E20">
-        <v>0.7690529221052632</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="F20">
-        <v>0.7690529221052632</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="G20">
-        <v>1.211316996842105</v>
+        <v>1.197966458356165</v>
       </c>
       <c r="H20">
-        <v>0.9135891294736843</v>
+        <v>0.9178356121917809</v>
       </c>
       <c r="I20">
-        <v>1.070061050526316</v>
+        <v>1.06712118</v>
       </c>
       <c r="J20">
-        <v>1.324185810526316</v>
+        <v>1.302988969863014</v>
       </c>
       <c r="K20">
-        <v>0.7690529221052632</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="L20">
-        <v>1.324185810526316</v>
+        <v>1.302988969863014</v>
       </c>
       <c r="M20">
-        <v>0.9294880831578947</v>
+        <v>0.9366024632876709</v>
       </c>
       <c r="N20">
-        <v>0.7690529221052632</v>
+        <v>0.7796027846575342</v>
       </c>
       <c r="O20">
-        <v>0.9294880831578947</v>
+        <v>0.9366024632876709</v>
       </c>
       <c r="P20">
-        <v>1.126836946842105</v>
+        <v>1.119795716575342</v>
       </c>
       <c r="Q20">
-        <v>0.9992100118421053</v>
+        <v>1.000606167123287</v>
       </c>
       <c r="R20">
-        <v>1.007575605263158</v>
+        <v>1.00639807260274</v>
       </c>
       <c r="S20">
-        <v>1.107535278070175</v>
+        <v>1.101400434703196</v>
       </c>
       <c r="T20">
-        <v>1.007575605263158</v>
+        <v>1.00639807260274</v>
       </c>
       <c r="U20">
-        <v>1.022914689078947</v>
+        <v>1.020951022191781</v>
       </c>
       <c r="V20">
-        <v>0.9721423356842106</v>
+        <v>0.9726813746849314</v>
       </c>
       <c r="W20">
-        <v>1.021051117171053</v>
+        <v>1.01955963885274</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.034090599972796</v>
+        <v>0.8817830042105264</v>
       </c>
       <c r="D21">
-        <v>0.9835546829516593</v>
+        <v>1.068931940526316</v>
       </c>
       <c r="E21">
-        <v>1.005576267777883</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="F21">
-        <v>1.005576267777883</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="G21">
-        <v>0.9505635915404078</v>
+        <v>1.211316996842105</v>
       </c>
       <c r="H21">
-        <v>1.005060901835656</v>
+        <v>0.9135891294736843</v>
       </c>
       <c r="I21">
-        <v>1.001298447372552</v>
+        <v>1.070061050526316</v>
       </c>
       <c r="J21">
-        <v>0.9167794763808607</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="K21">
-        <v>1.005576267777883</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="L21">
-        <v>0.9167794763808607</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="M21">
-        <v>1.04932377377107</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="N21">
-        <v>1.005576267777883</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="O21">
-        <v>1.04932377377107</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="P21">
-        <v>0.9830516250759653</v>
+        <v>1.126836946842105</v>
       </c>
       <c r="Q21">
-        <v>1.016439228361365</v>
+        <v>0.9992100118421053</v>
       </c>
       <c r="R21">
-        <v>0.9905598393099377</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="S21">
-        <v>0.9832193110345301</v>
+        <v>1.107535278070175</v>
       </c>
       <c r="T21">
-        <v>0.9905598393099376</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="U21">
-        <v>0.9888085502203681</v>
+        <v>1.022914689078947</v>
       </c>
       <c r="V21">
-        <v>0.992162093731871</v>
+        <v>0.9721423356842106</v>
       </c>
       <c r="W21">
-        <v>0.9932809677003605</v>
+        <v>1.021051117171053</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001411331558807</v>
+        <v>0.8817830042105264</v>
       </c>
       <c r="D22">
-        <v>0.9978967078631088</v>
+        <v>1.068931940526316</v>
       </c>
       <c r="E22">
-        <v>1.026029837396284</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="F22">
-        <v>1.026029837396284</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="G22">
-        <v>0.993052460704794</v>
+        <v>1.211316996842105</v>
       </c>
       <c r="H22">
-        <v>1.008643148041779</v>
+        <v>0.9135891294736843</v>
       </c>
       <c r="I22">
-        <v>0.9909735381015758</v>
+        <v>1.070061050526316</v>
       </c>
       <c r="J22">
-        <v>0.9920795375638961</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="K22">
-        <v>1.026029837396284</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="L22">
-        <v>0.9920795375638961</v>
+        <v>1.324185810526316</v>
       </c>
       <c r="M22">
-        <v>0.9897720585145819</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="N22">
-        <v>1.026029837396284</v>
+        <v>0.7690529221052632</v>
       </c>
       <c r="O22">
-        <v>0.9897720585145819</v>
+        <v>0.9294880831578947</v>
       </c>
       <c r="P22">
-        <v>0.990925798039239</v>
+        <v>1.126836946842105</v>
       </c>
       <c r="Q22">
-        <v>0.9938343831888454</v>
+        <v>0.9992100118421053</v>
       </c>
       <c r="R22">
-        <v>1.002627144491587</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="S22">
-        <v>0.9932494346471956</v>
+        <v>1.107535278070175</v>
       </c>
       <c r="T22">
-        <v>1.002627144491587</v>
+        <v>1.007575605263158</v>
       </c>
       <c r="U22">
-        <v>1.001444535334468</v>
+        <v>1.022914689078947</v>
       </c>
       <c r="V22">
-        <v>1.006361595746831</v>
+        <v>0.9721423356842106</v>
       </c>
       <c r="W22">
-        <v>0.9999823274681032</v>
+        <v>1.021051117171053</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.050866482172833</v>
+        <v>1.034090599972796</v>
       </c>
       <c r="D23">
-        <v>0.9695178793910392</v>
+        <v>0.9835546829516593</v>
       </c>
       <c r="E23">
-        <v>1.112777036505603</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="F23">
-        <v>1.112777036505603</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="G23">
-        <v>0.9066378481977073</v>
+        <v>0.9505635915404078</v>
       </c>
       <c r="H23">
-        <v>1.041452924960361</v>
+        <v>1.005060901835656</v>
       </c>
       <c r="I23">
-        <v>0.9651061255617663</v>
+        <v>1.001298447372552</v>
       </c>
       <c r="J23">
-        <v>0.8585719803706373</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="K23">
-        <v>1.112777036505603</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="L23">
-        <v>0.8585719803706373</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="M23">
-        <v>1.024003622592169</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="N23">
-        <v>1.112777036505603</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="O23">
-        <v>1.024003622592169</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="P23">
-        <v>0.9412878014814032</v>
+        <v>0.9830516250759653</v>
       </c>
       <c r="Q23">
-        <v>0.9967607509916041</v>
+        <v>1.016439228361365</v>
       </c>
       <c r="R23">
-        <v>0.9984508798228031</v>
+        <v>0.9905598393099377</v>
       </c>
       <c r="S23">
-        <v>0.950697827451282</v>
+        <v>0.9832193110345301</v>
       </c>
       <c r="T23">
-        <v>0.9984508798228031</v>
+        <v>0.9905598393099376</v>
       </c>
       <c r="U23">
-        <v>0.9912176297148622</v>
+        <v>0.9888085502203681</v>
       </c>
       <c r="V23">
-        <v>1.01552951107301</v>
+        <v>0.992162093731871</v>
       </c>
       <c r="W23">
-        <v>0.9911167374690144</v>
+        <v>0.9932809677003605</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.016228222497659</v>
+        <v>1.001411331558807</v>
       </c>
       <c r="D24">
-        <v>0.99081120536665</v>
+        <v>0.9978967078631088</v>
       </c>
       <c r="E24">
-        <v>1.020170739868685</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="F24">
-        <v>1.020170739868685</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="G24">
-        <v>0.9736620774044245</v>
+        <v>0.993052460704794</v>
       </c>
       <c r="H24">
-        <v>1.00761171154043</v>
+        <v>1.008643148041779</v>
       </c>
       <c r="I24">
-        <v>0.9943106471279164</v>
+        <v>0.9909735381015758</v>
       </c>
       <c r="J24">
-        <v>0.9591919345468267</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="K24">
-        <v>1.020170739868685</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="L24">
-        <v>0.9591919345468267</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="M24">
-        <v>1.015334925193843</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="N24">
-        <v>1.020170739868685</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="O24">
-        <v>1.015334925193843</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="P24">
-        <v>0.987263429870335</v>
+        <v>0.990925798039239</v>
       </c>
       <c r="Q24">
-        <v>1.003073065280247</v>
+        <v>0.9938343831888454</v>
       </c>
       <c r="R24">
-        <v>0.9982325332031184</v>
+        <v>1.002627144491587</v>
       </c>
       <c r="S24">
-        <v>0.98844602170244</v>
+        <v>0.9932494346471956</v>
       </c>
       <c r="T24">
-        <v>0.9982325332031184</v>
+        <v>1.002627144491587</v>
       </c>
       <c r="U24">
-        <v>0.9963772012440013</v>
+        <v>1.001444535334468</v>
       </c>
       <c r="V24">
-        <v>1.001135908968938</v>
+        <v>1.006361595746831</v>
       </c>
       <c r="W24">
-        <v>0.9971651829433044</v>
+        <v>0.9999823274681032</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.034090599972796</v>
+        <v>1.050866482172833</v>
       </c>
       <c r="D25">
-        <v>0.9835546829516595</v>
+        <v>0.9695178793910392</v>
       </c>
       <c r="E25">
-        <v>1.005576267777883</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="F25">
-        <v>1.005576267777883</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="G25">
-        <v>0.9505635915404078</v>
+        <v>0.9066378481977073</v>
       </c>
       <c r="H25">
-        <v>1.005060901835656</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="I25">
-        <v>1.001298447372552</v>
+        <v>0.9651061255617663</v>
       </c>
       <c r="J25">
-        <v>0.9167794763808607</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="K25">
-        <v>1.005576267777883</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="L25">
-        <v>0.9167794763808607</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="M25">
-        <v>1.04932377377107</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="N25">
-        <v>1.005576267777883</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="O25">
-        <v>1.04932377377107</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="P25">
-        <v>0.9830516250759653</v>
+        <v>0.9412878014814032</v>
       </c>
       <c r="Q25">
-        <v>1.016439228361365</v>
+        <v>0.9967607509916041</v>
       </c>
       <c r="R25">
-        <v>0.9905598393099377</v>
+        <v>0.9984508798228031</v>
       </c>
       <c r="S25">
-        <v>0.9832193110345301</v>
+        <v>0.950697827451282</v>
       </c>
       <c r="T25">
-        <v>0.9905598393099377</v>
+        <v>0.9984508798228031</v>
       </c>
       <c r="U25">
-        <v>0.9888085502203682</v>
+        <v>0.9912176297148622</v>
       </c>
       <c r="V25">
-        <v>0.992162093731871</v>
+        <v>1.01552951107301</v>
       </c>
       <c r="W25">
-        <v>0.9932809677003605</v>
+        <v>0.9911167374690144</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.001411331558807</v>
+        <v>1.016228222497659</v>
       </c>
       <c r="D26">
-        <v>0.9978967078631088</v>
+        <v>0.99081120536665</v>
       </c>
       <c r="E26">
-        <v>1.026029837396284</v>
+        <v>1.020170739868685</v>
       </c>
       <c r="F26">
-        <v>1.026029837396284</v>
+        <v>1.020170739868685</v>
       </c>
       <c r="G26">
-        <v>0.993052460704794</v>
+        <v>0.9736620774044245</v>
       </c>
       <c r="H26">
-        <v>1.008643148041779</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="I26">
-        <v>0.9909735381015756</v>
+        <v>0.9943106471279164</v>
       </c>
       <c r="J26">
-        <v>0.9920795375638962</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="K26">
-        <v>1.026029837396284</v>
+        <v>1.020170739868685</v>
       </c>
       <c r="L26">
-        <v>0.9920795375638962</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="M26">
-        <v>0.9897720585145821</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="N26">
-        <v>1.026029837396284</v>
+        <v>1.020170739868685</v>
       </c>
       <c r="O26">
-        <v>0.9897720585145821</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="P26">
-        <v>0.9909257980392392</v>
+        <v>0.987263429870335</v>
       </c>
       <c r="Q26">
-        <v>0.9938343831888454</v>
+        <v>1.003073065280247</v>
       </c>
       <c r="R26">
-        <v>1.002627144491587</v>
+        <v>0.9982325332031184</v>
       </c>
       <c r="S26">
-        <v>0.9932494346471957</v>
+        <v>0.98844602170244</v>
       </c>
       <c r="T26">
-        <v>1.002627144491587</v>
+        <v>0.9982325332031184</v>
       </c>
       <c r="U26">
-        <v>1.001444535334468</v>
+        <v>0.9963772012440013</v>
       </c>
       <c r="V26">
-        <v>1.006361595746831</v>
+        <v>1.001135908968938</v>
       </c>
       <c r="W26">
-        <v>0.9999823274681032</v>
+        <v>0.9971651829433044</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9823398228313622</v>
+        <v>1.034090599972796</v>
       </c>
       <c r="D27">
-        <v>1.010468112440104</v>
+        <v>0.9835546829516595</v>
       </c>
       <c r="E27">
-        <v>0.9667003961420099</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="F27">
-        <v>0.9667003961420099</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="G27">
-        <v>1.031026266100921</v>
+        <v>0.9505635915404078</v>
       </c>
       <c r="H27">
-        <v>0.9877979911755792</v>
+        <v>1.005060901835656</v>
       </c>
       <c r="I27">
-        <v>1.010128997118656</v>
+        <v>1.001298447372552</v>
       </c>
       <c r="J27">
-        <v>1.04711333764874</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="K27">
-        <v>0.9667003961420099</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="L27">
-        <v>1.04711333764874</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="M27">
-        <v>0.9887836101902426</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="N27">
-        <v>0.9667003961420099</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="O27">
-        <v>0.9887836101902426</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="P27">
-        <v>1.017948473919491</v>
+        <v>0.9830516250759653</v>
       </c>
       <c r="Q27">
-        <v>0.9996258613151734</v>
+        <v>1.016439228361365</v>
       </c>
       <c r="R27">
-        <v>1.000865781326997</v>
+        <v>0.9905598393099377</v>
       </c>
       <c r="S27">
-        <v>1.015455020093029</v>
+        <v>0.9832193110345301</v>
       </c>
       <c r="T27">
-        <v>1.000865781326997</v>
+        <v>0.9905598393099377</v>
       </c>
       <c r="U27">
-        <v>1.003266364105274</v>
+        <v>0.9888085502203682</v>
       </c>
       <c r="V27">
-        <v>0.9959531705126213</v>
+        <v>0.992162093731871</v>
       </c>
       <c r="W27">
-        <v>1.003044816705952</v>
+        <v>0.9932809677003605</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9948913630155064</v>
+        <v>1.001411331558807</v>
       </c>
       <c r="D28">
-        <v>1.004025841864834</v>
+        <v>0.9978967078631088</v>
       </c>
       <c r="E28">
-        <v>0.9725899481729776</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="F28">
-        <v>0.9725899481729776</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="G28">
-        <v>1.012328980196833</v>
+        <v>0.993052460704794</v>
       </c>
       <c r="H28">
-        <v>0.990682118022628</v>
+        <v>1.008643148041779</v>
       </c>
       <c r="I28">
-        <v>1.009193281182009</v>
+        <v>0.9909735381015756</v>
       </c>
       <c r="J28">
-        <v>1.016630507987192</v>
+        <v>0.9920795375638962</v>
       </c>
       <c r="K28">
-        <v>0.9725899481729776</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="L28">
-        <v>1.016630507987192</v>
+        <v>0.9920795375638962</v>
       </c>
       <c r="M28">
-        <v>1.005201963664385</v>
+        <v>0.9897720585145821</v>
       </c>
       <c r="N28">
-        <v>0.9725899481729776</v>
+        <v>1.026029837396284</v>
       </c>
       <c r="O28">
-        <v>1.005201963664385</v>
+        <v>0.9897720585145821</v>
       </c>
       <c r="P28">
-        <v>1.010916235825788</v>
+        <v>0.9909257980392392</v>
       </c>
       <c r="Q28">
-        <v>1.004613902764609</v>
+        <v>0.9938343831888454</v>
       </c>
       <c r="R28">
-        <v>0.9981408066081848</v>
+        <v>1.002627144491587</v>
       </c>
       <c r="S28">
-        <v>1.008619437838804</v>
+        <v>0.9932494346471957</v>
       </c>
       <c r="T28">
-        <v>0.9981408066081848</v>
+        <v>1.002627144491587</v>
       </c>
       <c r="U28">
-        <v>0.999612065422347</v>
+        <v>1.001444535334468</v>
       </c>
       <c r="V28">
-        <v>0.9942076419724731</v>
+        <v>1.006361595746831</v>
       </c>
       <c r="W28">
-        <v>1.000693000513296</v>
+        <v>0.9999823274681032</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9823398228313622</v>
+      </c>
+      <c r="D29">
+        <v>1.010468112440104</v>
+      </c>
+      <c r="E29">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="F29">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="G29">
+        <v>1.031026266100921</v>
+      </c>
+      <c r="H29">
+        <v>0.9877979911755792</v>
+      </c>
+      <c r="I29">
+        <v>1.010128997118656</v>
+      </c>
+      <c r="J29">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="K29">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="L29">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="M29">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="N29">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="O29">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="P29">
+        <v>1.017948473919491</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996258613151734</v>
+      </c>
+      <c r="R29">
+        <v>1.000865781326997</v>
+      </c>
+      <c r="S29">
+        <v>1.015455020093029</v>
+      </c>
+      <c r="T29">
+        <v>1.000865781326997</v>
+      </c>
+      <c r="U29">
+        <v>1.003266364105274</v>
+      </c>
+      <c r="V29">
+        <v>0.9959531705126213</v>
+      </c>
+      <c r="W29">
+        <v>1.003044816705952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9948913630155064</v>
+      </c>
+      <c r="D30">
+        <v>1.004025841864834</v>
+      </c>
+      <c r="E30">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="F30">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="G30">
+        <v>1.012328980196833</v>
+      </c>
+      <c r="H30">
+        <v>0.990682118022628</v>
+      </c>
+      <c r="I30">
+        <v>1.009193281182009</v>
+      </c>
+      <c r="J30">
+        <v>1.016630507987192</v>
+      </c>
+      <c r="K30">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="L30">
+        <v>1.016630507987192</v>
+      </c>
+      <c r="M30">
+        <v>1.005201963664385</v>
+      </c>
+      <c r="N30">
+        <v>0.9725899481729776</v>
+      </c>
+      <c r="O30">
+        <v>1.005201963664385</v>
+      </c>
+      <c r="P30">
+        <v>1.010916235825788</v>
+      </c>
+      <c r="Q30">
+        <v>1.004613902764609</v>
+      </c>
+      <c r="R30">
+        <v>0.9981408066081848</v>
+      </c>
+      <c r="S30">
+        <v>1.008619437838804</v>
+      </c>
+      <c r="T30">
+        <v>0.9981408066081848</v>
+      </c>
+      <c r="U30">
+        <v>0.999612065422347</v>
+      </c>
+      <c r="V30">
+        <v>0.9942076419724731</v>
+      </c>
+      <c r="W30">
+        <v>1.000693000513296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.051180337857057</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.972103820772702</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.064872347124905</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.064872347124905</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9151691446341558</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.025946454118078</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9820303166413005</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.86568828622046</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.064872347124905</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.86568828622046</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.047221505985671</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.064872347124905</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.047221505985671</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9564548961030657</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.009662663379187</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9925940464436787</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9616712043262777</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9925940464436787</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9874714900259345</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.002951661445729</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9905265266692913</v>
       </c>
     </row>
